--- a/Manuscript/Supplementary_Data/tables_website/forest_cover_change_uncertainty.xlsx
+++ b/Manuscript/Supplementary_Data/tables_website/forest_cover_change_uncertainty.xlsx
@@ -924,7 +924,7 @@
   </sheetPr>
   <dimension ref="A1:V358"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +934,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.04"/>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0.7</v>
@@ -1073,10 +1073,10 @@
         <v>1</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>2153</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1241,7 @@
         <v>103</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0.9</v>
@@ -1262,7 +1262,7 @@
         <v>63</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>42</v>
@@ -1377,7 +1377,7 @@
         <v>103</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3073</v>
+        <v>3075</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>2.9</v>
@@ -1649,7 +1649,7 @@
         <v>1206</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>7859</v>
+        <v>7865</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0.6</v>
@@ -1658,28 +1658,28 @@
         <v>1127</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>970</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>891</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>734</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>577</v>
@@ -1717,7 +1717,7 @@
         <v>1206</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>12731</v>
+        <v>12735</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>378</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>187</v>
@@ -1785,7 +1785,7 @@
         <v>1206</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>17604</v>
+        <v>17605</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1.4</v>
@@ -1806,7 +1806,7 @@
         <v>502</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>149</v>
@@ -1853,7 +1853,7 @@
         <v>28671</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>127529</v>
+        <v>127518</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0.4</v>
@@ -1871,22 +1871,22 @@
         <v>24208</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>23570</v>
+        <v>23571</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>22295</v>
+        <v>22296</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>21020</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>20382</v>
+        <v>20383</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>19744</v>
+        <v>19745</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>18469</v>
+        <v>18470</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>44</v>
@@ -1921,7 +1921,7 @@
         <v>28671</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>203521</v>
+        <v>203506</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0.7</v>
@@ -1936,25 +1936,25 @@
         <v>22566</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>21548</v>
+        <v>21549</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>20531</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>18495</v>
+        <v>18496</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>16460</v>
+        <v>16461</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>15443</v>
+        <v>15444</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>14425</v>
+        <v>14426</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>12390</v>
+        <v>12391</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>62</v>
@@ -1989,7 +1989,7 @@
         <v>28671</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>279512</v>
+        <v>279493</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>1</v>
@@ -1998,31 +1998,31 @@
         <v>25876</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>23081</v>
+        <v>23082</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>20286</v>
+        <v>20287</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>18888</v>
+        <v>18889</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>17491</v>
+        <v>17492</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>14696</v>
+        <v>14697</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>11901</v>
+        <v>11902</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>10503</v>
+        <v>10504</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>9106</v>
+        <v>9107</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>6310</v>
+        <v>6312</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>81</v>
@@ -2057,7 +2057,7 @@
         <v>12824</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>41218</v>
+        <v>41217</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0.3</v>
@@ -2149,7 +2149,7 @@
         <v>10122</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>9464</v>
+        <v>9465</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>9119</v>
@@ -2193,7 +2193,7 @@
         <v>12824</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>54935</v>
+        <v>54936</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0.4</v>
@@ -2223,7 +2223,7 @@
         <v>7806</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>7113</v>
+        <v>7114</v>
       </c>
       <c r="T19" s="0" t="n">
         <v>5119</v>
@@ -2261,7 +2261,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0.8</v>
@@ -2329,7 +2329,7 @@
         <v>89</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>1.3</v>
@@ -2397,7 +2397,7 @@
         <v>89</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>1.8</v>
@@ -2486,7 +2486,7 @@
         <v>10969</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>10816</v>
+        <v>10817</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>10628</v>
@@ -2533,7 +2533,7 @@
         <v>11457</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>14933</v>
+        <v>14934</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0.1</v>
@@ -2669,7 +2669,7 @@
         <v>145361</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>117657</v>
+        <v>117648</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0.1</v>
@@ -2690,19 +2690,19 @@
         <v>140638</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>139426</v>
+        <v>139427</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>138179</v>
+        <v>138180</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>137548</v>
+        <v>137549</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>136912</v>
+        <v>136913</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>135634</v>
+        <v>135635</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>9</v>
@@ -2737,7 +2737,7 @@
         <v>145361</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>164092</v>
+        <v>164083</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0.1</v>
@@ -2746,7 +2746,7 @@
         <v>143720</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>142079</v>
+        <v>142080</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>140397</v>
@@ -2758,19 +2758,19 @@
         <v>138651</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>136858</v>
+        <v>136859</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>135041</v>
+        <v>135042</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>134116</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>133148</v>
+        <v>133149</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>131144</v>
+        <v>131145</v>
       </c>
       <c r="U27" s="0" t="n">
         <v>12</v>
@@ -2805,7 +2805,7 @@
         <v>145361</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>210526</v>
+        <v>210518</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0.1</v>
@@ -2826,19 +2826,19 @@
         <v>136563</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>134146</v>
+        <v>134147</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>131574</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>130230</v>
+        <v>130231</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>128759</v>
+        <v>128760</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>125209</v>
+        <v>125210</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>16</v>
@@ -2873,7 +2873,7 @@
         <v>1912</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>14054</v>
+        <v>14044</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0.7</v>
@@ -2894,19 +2894,19 @@
         <v>1333</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="U29" s="0" t="n">
         <v>82</v>
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>21707</v>
+        <v>21697</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>1.1</v>
@@ -2962,10 +2962,10 @@
         <v>897</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>1912</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>29361</v>
+        <v>29350</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>1.5</v>
@@ -3021,10 +3021,10 @@
         <v>1299</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>361</v>
@@ -3213,7 +3213,7 @@
         <v>41</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>3.7</v>
@@ -3281,7 +3281,7 @@
         <v>385</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0.4</v>
@@ -3299,7 +3299,7 @@
         <v>328</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>255</v>
@@ -3311,7 +3311,7 @@
         <v>118</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>385</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>1.1</v>
@@ -3485,7 +3485,7 @@
         <v>348</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>10769</v>
+        <v>10767</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>2.4</v>
@@ -3553,7 +3553,7 @@
         <v>348</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>15305</v>
+        <v>15302</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>3.7</v>
@@ -3621,7 +3621,7 @@
         <v>348</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>19842</v>
+        <v>19836</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>5</v>
@@ -3689,7 +3689,7 @@
         <v>3269</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>60207</v>
+        <v>60201</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>1.6</v>
@@ -3757,7 +3757,7 @@
         <v>3269</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>94119</v>
+        <v>94108</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>2.5</v>
@@ -3825,7 +3825,7 @@
         <v>3269</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>128031</v>
+        <v>128015</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>3.6</v>
@@ -3834,7 +3834,7 @@
         <v>1989</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>30422</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>238546</v>
+        <v>238587</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0.7</v>
@@ -3902,31 +3902,31 @@
         <v>28036</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>25651</v>
+        <v>25650</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>23265</v>
+        <v>23264</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>22071</v>
+        <v>22069</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>20863</v>
+        <v>20861</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>18442</v>
+        <v>18440</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>15986</v>
+        <v>15984</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>14751</v>
+        <v>14748</v>
       </c>
       <c r="S44" s="0" t="n">
-        <v>13510</v>
+        <v>13507</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>11024</v>
+        <v>11021</v>
       </c>
       <c r="U44" s="0" t="n">
         <v>73</v>
@@ -3961,7 +3961,7 @@
         <v>30422</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>304750</v>
+        <v>304774</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>1</v>
@@ -3970,31 +3970,31 @@
         <v>27374</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>24327</v>
+        <v>24326</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>21238</v>
+        <v>21237</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>19676</v>
+        <v>19675</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>18085</v>
+        <v>18084</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>14886</v>
+        <v>14885</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>11662</v>
+        <v>11661</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>10033</v>
+        <v>10032</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>8362</v>
+        <v>8361</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>4952</v>
+        <v>4950</v>
       </c>
       <c r="U45" s="0" t="n">
         <v>88</v>
@@ -4029,7 +4029,7 @@
         <v>30422</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>370955</v>
+        <v>370960</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>1.2</v>
@@ -4038,7 +4038,7 @@
         <v>26712</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>22977</v>
+        <v>22976</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>19134</v>
@@ -4053,10 +4053,10 @@
         <v>11185</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>7009</v>
+        <v>7008</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>4863</v>
+        <v>4862</v>
       </c>
       <c r="S46" s="0" t="n">
         <v>2590</v>
@@ -4097,7 +4097,7 @@
         <v>657</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>7371</v>
+        <v>7370</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>1</v>
@@ -4233,7 +4233,7 @@
         <v>657</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>11824</v>
+        <v>11823</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>1.7</v>
@@ -4301,7 +4301,7 @@
         <v>927</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>26830</v>
+        <v>26822</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>2.3</v>
@@ -4369,7 +4369,7 @@
         <v>927</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>40575</v>
+        <v>40576</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>3.7</v>
@@ -4437,7 +4437,7 @@
         <v>927</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>54321</v>
+        <v>54330</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>5.2</v>
@@ -4505,7 +4505,7 @@
         <v>87854</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>400167</v>
+        <v>400164</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>0.4</v>
@@ -4529,7 +4529,7 @@
         <v>67794</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>63721</v>
+        <v>63722</v>
       </c>
       <c r="R53" s="0" t="n">
         <v>61678</v>
@@ -4538,7 +4538,7 @@
         <v>59629</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>55526</v>
+        <v>55527</v>
       </c>
       <c r="U53" s="0" t="n">
         <v>45</v>
@@ -4573,7 +4573,7 @@
         <v>87854</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>480633</v>
+        <v>480627</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>0.5</v>
@@ -4582,13 +4582,13 @@
         <v>83048</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>78241</v>
+        <v>78242</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>73393</v>
+        <v>73394</v>
       </c>
       <c r="N54" s="0" t="n">
-        <v>70952</v>
+        <v>70953</v>
       </c>
       <c r="O54" s="0" t="n">
         <v>68482</v>
@@ -4597,16 +4597,16 @@
         <v>63524</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>58541</v>
+        <v>58542</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>56033</v>
+        <v>56034</v>
       </c>
       <c r="S54" s="0" t="n">
         <v>53483</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>48313</v>
+        <v>48314</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>52</v>
@@ -4641,7 +4641,7 @@
         <v>87854</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>561099</v>
+        <v>561091</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>0.6</v>
@@ -4656,25 +4656,25 @@
         <v>70862</v>
       </c>
       <c r="N55" s="0" t="n">
-        <v>67955</v>
+        <v>67956</v>
       </c>
       <c r="O55" s="0" t="n">
         <v>65033</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>59110</v>
+        <v>59111</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>53032</v>
+        <v>53033</v>
       </c>
       <c r="R55" s="0" t="n">
         <v>49936</v>
       </c>
       <c r="S55" s="0" t="n">
-        <v>46712</v>
+        <v>46713</v>
       </c>
       <c r="T55" s="0" t="n">
-        <v>39656</v>
+        <v>39657</v>
       </c>
       <c r="U55" s="0" t="n">
         <v>61</v>
@@ -4709,7 +4709,7 @@
         <v>38</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>0.4</v>
@@ -4913,7 +4913,7 @@
         <v>2455</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>19749</v>
+        <v>19747</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>0.8</v>
@@ -4925,7 +4925,7 @@
         <v>2060</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="N59" s="0" t="n">
         <v>1762</v>
@@ -4937,7 +4937,7 @@
         <v>1415</v>
       </c>
       <c r="Q59" s="0" t="n">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="R59" s="0" t="n">
         <v>1006</v>
@@ -4981,7 +4981,7 @@
         <v>2455</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>26608</v>
+        <v>26604</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>1</v>
@@ -5049,7 +5049,7 @@
         <v>2455</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>33466</v>
+        <v>33462</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>1.3</v>
@@ -5058,13 +5058,13 @@
         <v>2120</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>1292</v>
       </c>
       <c r="N61" s="0" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="O61" s="0" t="n">
         <v>739</v>
@@ -5185,7 +5185,7 @@
         <v>110</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>1.1</v>
@@ -5253,7 +5253,7 @@
         <v>110</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>1.6</v>
@@ -5389,7 +5389,7 @@
         <v>54</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>4</v>
@@ -5457,7 +5457,7 @@
         <v>54</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>3969</v>
+        <v>3971</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>6.6</v>
@@ -5525,7 +5525,7 @@
         <v>691</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>0.3</v>
@@ -5593,7 +5593,7 @@
         <v>691</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>5789</v>
+        <v>5792</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>0.8</v>
@@ -5661,7 +5661,7 @@
         <v>691</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>9005</v>
+        <v>9009</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>1.3</v>
@@ -5673,7 +5673,7 @@
         <v>484</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N70" s="0" t="n">
         <v>115</v>
@@ -5933,7 +5933,7 @@
         <v>2064</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>11155</v>
+        <v>11154</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>0.5</v>
@@ -6001,7 +6001,7 @@
         <v>2064</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>23904</v>
+        <v>23907</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>1.1</v>
@@ -6069,7 +6069,7 @@
         <v>2064</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>36653</v>
+        <v>36660</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>1.8</v>
@@ -6087,7 +6087,7 @@
         <v>521</v>
       </c>
       <c r="O76" s="0" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P76" s="0" t="n">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>12507</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>107664</v>
+        <v>107663</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>0.8</v>
@@ -6158,7 +6158,7 @@
         <v>8183</v>
       </c>
       <c r="P77" s="0" t="n">
-        <v>7071</v>
+        <v>7072</v>
       </c>
       <c r="Q77" s="0" t="n">
         <v>5924</v>
@@ -6205,7 +6205,7 @@
         <v>12507</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>134722</v>
+        <v>134715</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>1</v>
@@ -6214,10 +6214,10 @@
         <v>11160</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>9812</v>
+        <v>9813</v>
       </c>
       <c r="M78" s="0" t="n">
-        <v>8423</v>
+        <v>8424</v>
       </c>
       <c r="N78" s="0" t="n">
         <v>7712</v>
@@ -6226,19 +6226,19 @@
         <v>6971</v>
       </c>
       <c r="P78" s="0" t="n">
-        <v>5472</v>
+        <v>5473</v>
       </c>
       <c r="Q78" s="0" t="n">
         <v>3949</v>
       </c>
       <c r="R78" s="0" t="n">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="S78" s="0" t="n">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="T78" s="0" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="U78" s="0" t="n">
         <v>96</v>
@@ -6273,7 +6273,7 @@
         <v>12507</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>161781</v>
+        <v>161768</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>1.2</v>
@@ -6285,22 +6285,22 @@
         <v>9245</v>
       </c>
       <c r="M79" s="0" t="n">
-        <v>7494</v>
+        <v>7495</v>
       </c>
       <c r="N79" s="0" t="n">
-        <v>6584</v>
+        <v>6585</v>
       </c>
       <c r="O79" s="0" t="n">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="P79" s="0" t="n">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="Q79" s="0" t="n">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="R79" s="0" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="S79" s="0" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>11422</v>
       </c>
       <c r="R81" s="0" t="n">
-        <v>11015</v>
+        <v>11016</v>
       </c>
       <c r="S81" s="0" t="n">
         <v>10566</v>
@@ -6507,10 +6507,10 @@
         <v>7347</v>
       </c>
       <c r="S82" s="0" t="n">
-        <v>6411</v>
+        <v>6412</v>
       </c>
       <c r="T82" s="0" t="n">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="U82" s="0" t="n">
         <v>77</v>
@@ -6545,7 +6545,7 @@
         <v>2340</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>15197</v>
+        <v>15202</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>0.6</v>
@@ -6560,13 +6560,13 @@
         <v>1884</v>
       </c>
       <c r="N83" s="0" t="n">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="O83" s="0" t="n">
         <v>1715</v>
       </c>
       <c r="P83" s="0" t="n">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="Q83" s="0" t="n">
         <v>1305</v>
@@ -6575,7 +6575,7 @@
         <v>1186</v>
       </c>
       <c r="S83" s="0" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="T83" s="0" t="n">
         <v>809</v>
@@ -6613,7 +6613,7 @@
         <v>2340</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>19692</v>
+        <v>19694</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>0.8</v>
@@ -6681,7 +6681,7 @@
         <v>2340</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>24187</v>
+        <v>24186</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>1</v>
@@ -6749,7 +6749,7 @@
         <v>2644</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>10288</v>
+        <v>10289</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>0.4</v>
@@ -6817,7 +6817,7 @@
         <v>2644</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>15838</v>
+        <v>15839</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>0.6</v>
@@ -6885,7 +6885,7 @@
         <v>2644</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>21388</v>
+        <v>21389</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>0.8</v>
@@ -7089,7 +7089,7 @@
         <v>55</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>2.2</v>
@@ -7157,13 +7157,13 @@
         <v>933</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>26928</v>
+        <v>26926</v>
       </c>
       <c r="J92" s="0" t="n">
         <v>2.2</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L92" s="0" t="n">
         <v>394</v>
@@ -7225,7 +7225,7 @@
         <v>933</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="J93" s="0" t="n">
         <v>3.9</v>
@@ -7293,7 +7293,7 @@
         <v>933</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>62212</v>
+        <v>62209</v>
       </c>
       <c r="J94" s="0" t="n">
         <v>5.9</v>
@@ -7352,7 +7352,7 @@
         <v>25</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>70288</v>
+        <v>70289</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>67017</v>
@@ -7361,7 +7361,7 @@
         <v>64205</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>259912</v>
+        <v>259919</v>
       </c>
       <c r="J95" s="0" t="n">
         <v>0.4</v>
@@ -7382,16 +7382,16 @@
         <v>53809</v>
       </c>
       <c r="P95" s="0" t="n">
-        <v>51210</v>
+        <v>51209</v>
       </c>
       <c r="Q95" s="0" t="n">
-        <v>48611</v>
+        <v>48610</v>
       </c>
       <c r="R95" s="0" t="n">
         <v>47311</v>
       </c>
       <c r="S95" s="0" t="n">
-        <v>46012</v>
+        <v>46011</v>
       </c>
       <c r="T95" s="0" t="n">
         <v>43412</v>
@@ -7420,7 +7420,7 @@
         <v>26</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>70288</v>
+        <v>70289</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>67017</v>
@@ -7429,7 +7429,7 @@
         <v>64205</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>295615</v>
+        <v>295620</v>
       </c>
       <c r="J96" s="0" t="n">
         <v>0.5</v>
@@ -7450,7 +7450,7 @@
         <v>52381</v>
       </c>
       <c r="P96" s="0" t="n">
-        <v>49425</v>
+        <v>49424</v>
       </c>
       <c r="Q96" s="0" t="n">
         <v>46468</v>
@@ -7488,7 +7488,7 @@
         <v>27</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>70288</v>
+        <v>70289</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>67017</v>
@@ -7497,7 +7497,7 @@
         <v>64205</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>331318</v>
+        <v>331320</v>
       </c>
       <c r="J97" s="0" t="n">
         <v>0.5</v>
@@ -7565,7 +7565,7 @@
         <v>2117</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>14634</v>
+        <v>14633</v>
       </c>
       <c r="J98" s="0" t="n">
         <v>0.7</v>
@@ -7633,7 +7633,7 @@
         <v>2117</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>18621</v>
+        <v>18618</v>
       </c>
       <c r="J99" s="0" t="n">
         <v>0.8</v>
@@ -7651,7 +7651,7 @@
         <v>1466</v>
       </c>
       <c r="O99" s="0" t="n">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="P99" s="0" t="n">
         <v>1186</v>
@@ -7701,7 +7701,7 @@
         <v>2117</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>22608</v>
+        <v>22604</v>
       </c>
       <c r="J100" s="0" t="n">
         <v>1</v>
@@ -7769,7 +7769,7 @@
         <v>1204</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>10233</v>
+        <v>10232</v>
       </c>
       <c r="J101" s="0" t="n">
         <v>0.8</v>
@@ -7787,7 +7787,7 @@
         <v>846</v>
       </c>
       <c r="O101" s="0" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="P101" s="0" t="n">
         <v>692</v>
@@ -7799,7 +7799,7 @@
         <v>539</v>
       </c>
       <c r="S101" s="0" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T101" s="0" t="n">
         <v>385</v>
@@ -7837,7 +7837,7 @@
         <v>1204</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>15252</v>
+        <v>15251</v>
       </c>
       <c r="J102" s="0" t="n">
         <v>1.2</v>
@@ -8041,7 +8041,7 @@
         <v>67</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J105" s="0" t="n">
         <v>0.3</v>
@@ -8062,7 +8062,7 @@
         <v>59</v>
       </c>
       <c r="P105" s="0" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q105" s="0" t="n">
         <v>54</v>
@@ -8080,7 +8080,7 @@
         <v>29</v>
       </c>
       <c r="V105" s="0" t="n">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,7 +8109,7 @@
         <v>67</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J106" s="0" t="n">
         <v>0.5</v>
@@ -8177,7 +8177,7 @@
         <v>866</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>9608</v>
+        <v>9610</v>
       </c>
       <c r="J107" s="0" t="n">
         <v>1</v>
@@ -8245,7 +8245,7 @@
         <v>866</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>15486</v>
+        <v>15492</v>
       </c>
       <c r="J108" s="0" t="n">
         <v>1.6</v>
@@ -8313,7 +8313,7 @@
         <v>866</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>21364</v>
+        <v>21373</v>
       </c>
       <c r="J109" s="0" t="n">
         <v>2.3</v>
@@ -8325,10 +8325,10 @@
         <v>439</v>
       </c>
       <c r="M109" s="0" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N109" s="0" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O109" s="0" t="n">
         <v>12</v>
@@ -8372,55 +8372,55 @@
         <v>25</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>15471</v>
+        <v>15491</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>14952</v>
+        <v>14964</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>14380</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>43234</v>
+        <v>43944</v>
       </c>
       <c r="J110" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>13948</v>
+        <v>13941</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>13516</v>
+        <v>13501</v>
       </c>
       <c r="M110" s="0" t="n">
-        <v>13083</v>
+        <v>13062</v>
       </c>
       <c r="N110" s="0" t="n">
-        <v>12867</v>
+        <v>12842</v>
       </c>
       <c r="O110" s="0" t="n">
-        <v>12651</v>
+        <v>12623</v>
       </c>
       <c r="P110" s="0" t="n">
-        <v>12219</v>
+        <v>12183</v>
       </c>
       <c r="Q110" s="0" t="n">
-        <v>11786</v>
+        <v>11744</v>
       </c>
       <c r="R110" s="0" t="n">
-        <v>11570</v>
+        <v>11524</v>
       </c>
       <c r="S110" s="0" t="n">
-        <v>11354</v>
+        <v>11304</v>
       </c>
       <c r="T110" s="0" t="n">
-        <v>10922</v>
+        <v>10865</v>
       </c>
       <c r="U110" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V110" s="0" t="n">
-        <v>2352</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8440,55 +8440,55 @@
         <v>26</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>15471</v>
+        <v>15491</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>14952</v>
+        <v>14964</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>14380</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>60821</v>
+        <v>62028</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>13772</v>
+        <v>13760</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>13164</v>
+        <v>13140</v>
       </c>
       <c r="M111" s="0" t="n">
-        <v>12556</v>
+        <v>12520</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>12252</v>
+        <v>12209</v>
       </c>
       <c r="O111" s="0" t="n">
-        <v>11948</v>
+        <v>11899</v>
       </c>
       <c r="P111" s="0" t="n">
-        <v>11339</v>
+        <v>11279</v>
       </c>
       <c r="Q111" s="0" t="n">
-        <v>10731</v>
+        <v>10659</v>
       </c>
       <c r="R111" s="0" t="n">
-        <v>10427</v>
+        <v>10349</v>
       </c>
       <c r="S111" s="0" t="n">
-        <v>10123</v>
+        <v>10038</v>
       </c>
       <c r="T111" s="0" t="n">
-        <v>9515</v>
+        <v>9418</v>
       </c>
       <c r="U111" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V111" s="0" t="n">
-        <v>2256</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8508,55 +8508,55 @@
         <v>27</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>15471</v>
+        <v>15491</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>14952</v>
+        <v>14964</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>14380</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>78408</v>
+        <v>80111</v>
       </c>
       <c r="J112" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>13596</v>
+        <v>13579</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>12812</v>
+        <v>12778</v>
       </c>
       <c r="M112" s="0" t="n">
-        <v>12028</v>
+        <v>11977</v>
       </c>
       <c r="N112" s="0" t="n">
-        <v>11636</v>
+        <v>11576</v>
       </c>
       <c r="O112" s="0" t="n">
-        <v>11244</v>
+        <v>11176</v>
       </c>
       <c r="P112" s="0" t="n">
-        <v>10460</v>
+        <v>10375</v>
       </c>
       <c r="Q112" s="0" t="n">
-        <v>9676</v>
+        <v>9574</v>
       </c>
       <c r="R112" s="0" t="n">
-        <v>9284</v>
+        <v>9173</v>
       </c>
       <c r="S112" s="0" t="n">
-        <v>8892</v>
+        <v>8773</v>
       </c>
       <c r="T112" s="0" t="n">
-        <v>8108</v>
+        <v>7971</v>
       </c>
       <c r="U112" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V112" s="0" t="n">
-        <v>2203</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8585,7 +8585,7 @@
         <v>97</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>1.1</v>
@@ -8653,7 +8653,7 @@
         <v>97</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="J114" s="0" t="n">
         <v>1.6</v>
@@ -8721,7 +8721,7 @@
         <v>97</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="J115" s="0" t="n">
         <v>2.1</v>
@@ -8789,7 +8789,7 @@
         <v>8066</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="J116" s="0" t="n">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>3</v>
       </c>
       <c r="V116" s="0" t="n">
-        <v>5288</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8857,7 +8857,7 @@
         <v>8066</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="J117" s="0" t="n">
         <v>0</v>
@@ -8890,13 +8890,13 @@
         <v>7860</v>
       </c>
       <c r="T117" s="0" t="n">
-        <v>7831</v>
+        <v>7830</v>
       </c>
       <c r="U117" s="0" t="n">
         <v>4</v>
       </c>
       <c r="V117" s="0" t="n">
-        <v>4763</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,7 +8925,7 @@
         <v>8066</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="J118" s="0" t="n">
         <v>0</v>
@@ -8964,7 +8964,7 @@
         <v>4</v>
       </c>
       <c r="V118" s="0" t="n">
-        <v>4384</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8993,7 +8993,7 @@
         <v>19</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J119" s="0" t="n">
         <v>0.3</v>
@@ -9020,7 +9020,7 @@
         <v>16</v>
       </c>
       <c r="R119" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S119" s="0" t="n">
         <v>15</v>
@@ -9032,7 +9032,7 @@
         <v>43</v>
       </c>
       <c r="V119" s="0" t="n">
-        <v>2361</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9061,7 +9061,7 @@
         <v>19</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J120" s="0" t="n">
         <v>1.4</v>
@@ -9082,7 +9082,7 @@
         <v>7</v>
       </c>
       <c r="P120" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q120" s="0" t="n">
         <v>2</v>
@@ -9129,7 +9129,7 @@
         <v>19</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J121" s="0" t="n">
         <v>2.7</v>
@@ -9197,7 +9197,7 @@
         <v>73</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>0.3</v>
@@ -9224,7 +9224,7 @@
         <v>60</v>
       </c>
       <c r="R122" s="0" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S122" s="0" t="n">
         <v>57</v>
@@ -9236,7 +9236,7 @@
         <v>31</v>
       </c>
       <c r="V122" s="0" t="n">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9265,7 +9265,7 @@
         <v>73</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>0.5</v>
@@ -9292,7 +9292,7 @@
         <v>50</v>
       </c>
       <c r="R123" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S123" s="0" t="n">
         <v>47</v>
@@ -9304,7 +9304,7 @@
         <v>46</v>
       </c>
       <c r="V123" s="0" t="n">
-        <v>2213</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9401,7 +9401,7 @@
         <v>2282</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>39425</v>
+        <v>39428</v>
       </c>
       <c r="J125" s="0" t="n">
         <v>1.5</v>
@@ -9419,7 +9419,7 @@
         <v>902</v>
       </c>
       <c r="O125" s="0" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P125" s="0" t="n">
         <v>310</v>
@@ -9469,7 +9469,7 @@
         <v>2282</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>48867</v>
+        <v>48871</v>
       </c>
       <c r="J126" s="0" t="n">
         <v>2</v>
@@ -9481,7 +9481,7 @@
         <v>1304</v>
       </c>
       <c r="M126" s="0" t="n">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N126" s="0" t="n">
         <v>571</v>
@@ -9537,7 +9537,7 @@
         <v>2282</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>58309</v>
+        <v>58314</v>
       </c>
       <c r="J127" s="0" t="n">
         <v>2.4</v>
@@ -9741,7 +9741,7 @@
         <v>18362</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>18972</v>
+        <v>18973</v>
       </c>
       <c r="J130" s="0" t="n">
         <v>0.1</v>
@@ -9771,7 +9771,7 @@
         <v>17128</v>
       </c>
       <c r="S130" s="0" t="n">
-        <v>17034</v>
+        <v>17033</v>
       </c>
       <c r="T130" s="0" t="n">
         <v>16844</v>
@@ -9877,7 +9877,7 @@
         <v>122</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>4840</v>
+        <v>4839</v>
       </c>
       <c r="J132" s="0" t="n">
         <v>3.3</v>
@@ -9945,7 +9945,7 @@
         <v>122</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="J133" s="0" t="n">
         <v>4.3</v>
@@ -10013,7 +10013,7 @@
         <v>2571</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>35302</v>
+        <v>35309</v>
       </c>
       <c r="J134" s="0" t="n">
         <v>1.2</v>
@@ -10040,7 +10040,7 @@
         <v>453</v>
       </c>
       <c r="R134" s="0" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S134" s="0" t="n">
         <v>100</v>
@@ -10081,7 +10081,7 @@
         <v>2571</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>46107</v>
+        <v>46114</v>
       </c>
       <c r="J135" s="0" t="n">
         <v>1.6</v>
@@ -10096,7 +10096,7 @@
         <v>1188</v>
       </c>
       <c r="N135" s="0" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O135" s="0" t="n">
         <v>727</v>
@@ -10149,7 +10149,7 @@
         <v>2571</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>56912</v>
+        <v>56918</v>
       </c>
       <c r="J136" s="0" t="n">
         <v>2.1</v>
@@ -10164,7 +10164,7 @@
         <v>864</v>
       </c>
       <c r="N136" s="0" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O136" s="0" t="n">
         <v>295</v>
@@ -10285,7 +10285,7 @@
         <v>395</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="J138" s="0" t="n">
         <v>0.8</v>
@@ -10297,13 +10297,13 @@
         <v>329</v>
       </c>
       <c r="M138" s="0" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N138" s="0" t="n">
         <v>280</v>
       </c>
       <c r="O138" s="0" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P138" s="0" t="n">
         <v>231</v>
@@ -10324,7 +10324,7 @@
         <v>73</v>
       </c>
       <c r="V138" s="0" t="n">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10353,7 +10353,7 @@
         <v>395</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>4667</v>
+        <v>4663</v>
       </c>
       <c r="J139" s="0" t="n">
         <v>1.2</v>
@@ -10377,7 +10377,7 @@
         <v>162</v>
       </c>
       <c r="Q139" s="0" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R139" s="0" t="n">
         <v>92</v>
@@ -10557,7 +10557,7 @@
         <v>66</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="J142" s="0" t="n">
         <v>0.9</v>
@@ -10596,7 +10596,7 @@
         <v>76</v>
       </c>
       <c r="V142" s="0" t="n">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10625,7 +10625,7 @@
         <v>6270</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>95362</v>
+        <v>95361</v>
       </c>
       <c r="J143" s="0" t="n">
         <v>1.3</v>
@@ -10693,7 +10693,7 @@
         <v>6270</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>134606</v>
+        <v>134601</v>
       </c>
       <c r="J144" s="0" t="n">
         <v>2</v>
@@ -10761,7 +10761,7 @@
         <v>6270</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>173849</v>
+        <v>173842</v>
       </c>
       <c r="J145" s="0" t="n">
         <v>2.6</v>
@@ -10773,7 +10773,7 @@
         <v>2793</v>
       </c>
       <c r="M145" s="0" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="N145" s="0" t="n">
         <v>185</v>
@@ -10965,7 +10965,7 @@
         <v>3</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J148" s="0" t="n">
         <v>0.5</v>
@@ -11001,10 +11001,10 @@
         <v>2</v>
       </c>
       <c r="U148" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V148" s="0" t="n">
-        <v>2213</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11033,7 +11033,7 @@
         <v>3376</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>59037</v>
+        <v>59040</v>
       </c>
       <c r="J149" s="0" t="n">
         <v>1.5</v>
@@ -11101,7 +11101,7 @@
         <v>3376</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>96471</v>
+        <v>96464</v>
       </c>
       <c r="J150" s="0" t="n">
         <v>2.5</v>
@@ -11169,7 +11169,7 @@
         <v>3376</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>133905</v>
+        <v>133889</v>
       </c>
       <c r="J151" s="0" t="n">
         <v>3.6</v>
@@ -11237,7 +11237,7 @@
         <v>3998</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>18559</v>
+        <v>18560</v>
       </c>
       <c r="J152" s="0" t="n">
         <v>0.4</v>
@@ -11270,7 +11270,7 @@
         <v>2699</v>
       </c>
       <c r="T152" s="0" t="n">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="U152" s="0" t="n">
         <v>43</v>
@@ -11305,7 +11305,7 @@
         <v>3998</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>23270</v>
+        <v>23274</v>
       </c>
       <c r="J153" s="0" t="n">
         <v>0.6</v>
@@ -11332,13 +11332,13 @@
         <v>2602</v>
       </c>
       <c r="R153" s="0" t="n">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="S153" s="0" t="n">
         <v>2369</v>
       </c>
       <c r="T153" s="0" t="n">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="U153" s="0" t="n">
         <v>52</v>
@@ -11373,7 +11373,7 @@
         <v>3998</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>27981</v>
+        <v>27987</v>
       </c>
       <c r="J154" s="0" t="n">
         <v>0.7</v>
@@ -11403,10 +11403,10 @@
         <v>2179</v>
       </c>
       <c r="S154" s="0" t="n">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="T154" s="0" t="n">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="U154" s="0" t="n">
         <v>60</v>
@@ -11509,7 +11509,7 @@
         <v>1071</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>40701</v>
+        <v>40703</v>
       </c>
       <c r="J156" s="0" t="n">
         <v>3.2</v>
@@ -11577,7 +11577,7 @@
         <v>1071</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>58063</v>
+        <v>58066</v>
       </c>
       <c r="J157" s="0" t="n">
         <v>5</v>
@@ -11645,7 +11645,7 @@
         <v>70775</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>127725</v>
+        <v>127720</v>
       </c>
       <c r="J158" s="0" t="n">
         <v>0.2</v>
@@ -11675,7 +11675,7 @@
         <v>62473</v>
       </c>
       <c r="S158" s="0" t="n">
-        <v>61834</v>
+        <v>61835</v>
       </c>
       <c r="T158" s="0" t="n">
         <v>60557</v>
@@ -11713,7 +11713,7 @@
         <v>70775</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>139441</v>
+        <v>139438</v>
       </c>
       <c r="J159" s="0" t="n">
         <v>0.2</v>
@@ -11731,7 +11731,7 @@
         <v>65895</v>
       </c>
       <c r="O159" s="0" t="n">
-        <v>65197</v>
+        <v>65198</v>
       </c>
       <c r="P159" s="0" t="n">
         <v>63803</v>
@@ -11740,7 +11740,7 @@
         <v>62409</v>
       </c>
       <c r="R159" s="0" t="n">
-        <v>61711</v>
+        <v>61712</v>
       </c>
       <c r="S159" s="0" t="n">
         <v>61014</v>
@@ -11781,13 +11781,13 @@
         <v>70775</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>151158</v>
+        <v>151157</v>
       </c>
       <c r="J160" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>69263</v>
+        <v>69264</v>
       </c>
       <c r="L160" s="0" t="n">
         <v>67752</v>
@@ -11814,7 +11814,7 @@
         <v>60194</v>
       </c>
       <c r="T160" s="0" t="n">
-        <v>58682</v>
+        <v>58683</v>
       </c>
       <c r="U160" s="0" t="n">
         <v>20</v>
@@ -11849,7 +11849,7 @@
         <v>320</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="J161" s="0" t="n">
         <v>0.6</v>
@@ -11917,7 +11917,7 @@
         <v>320</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="J162" s="0" t="n">
         <v>1.4</v>
@@ -12393,7 +12393,7 @@
         <v>44</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J169" s="0" t="n">
         <v>0.9</v>
@@ -12461,10 +12461,10 @@
         <v>0</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>0</v>
@@ -12500,7 +12500,7 @@
         <v>100</v>
       </c>
       <c r="V170" s="0" t="n">
-        <v>2062</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13073,7 +13073,7 @@
         <v>13627</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>9863</v>
+        <v>9862</v>
       </c>
       <c r="J179" s="0" t="n">
         <v>0.1</v>
@@ -13094,7 +13094,7 @@
         <v>13232</v>
       </c>
       <c r="P179" s="0" t="n">
-        <v>13133</v>
+        <v>13134</v>
       </c>
       <c r="Q179" s="0" t="n">
         <v>13035</v>
@@ -13141,7 +13141,7 @@
         <v>13627</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>12244</v>
+        <v>12243</v>
       </c>
       <c r="J180" s="0" t="n">
         <v>0.1</v>
@@ -13180,7 +13180,7 @@
         <v>9</v>
       </c>
       <c r="V180" s="0" t="n">
-        <v>3132</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13345,7 +13345,7 @@
         <v>307</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="J183" s="0" t="n">
         <v>0.9</v>
@@ -13363,7 +13363,7 @@
         <v>206</v>
       </c>
       <c r="O183" s="0" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P183" s="0" t="n">
         <v>163</v>
@@ -13378,7 +13378,7 @@
         <v>105</v>
       </c>
       <c r="T183" s="0" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U183" s="0" t="n">
         <v>78</v>
@@ -13413,7 +13413,7 @@
         <v>307</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>4693</v>
+        <v>4696</v>
       </c>
       <c r="J184" s="0" t="n">
         <v>1.5</v>
@@ -13481,7 +13481,7 @@
         <v>41463</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>102409</v>
+        <v>102419</v>
       </c>
       <c r="J185" s="0" t="n">
         <v>0.2</v>
@@ -13490,10 +13490,10 @@
         <v>40439</v>
       </c>
       <c r="L185" s="0" t="n">
-        <v>39415</v>
+        <v>39414</v>
       </c>
       <c r="M185" s="0" t="n">
-        <v>38391</v>
+        <v>38390</v>
       </c>
       <c r="N185" s="0" t="n">
         <v>37878</v>
@@ -13511,10 +13511,10 @@
         <v>34806</v>
       </c>
       <c r="S185" s="0" t="n">
-        <v>34294</v>
+        <v>34293</v>
       </c>
       <c r="T185" s="0" t="n">
-        <v>33270</v>
+        <v>33269</v>
       </c>
       <c r="U185" s="0" t="n">
         <v>26</v>
@@ -13549,7 +13549,7 @@
         <v>41463</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>150789</v>
+        <v>150796</v>
       </c>
       <c r="J186" s="0" t="n">
         <v>0.4</v>
@@ -13576,13 +13576,13 @@
         <v>32415</v>
       </c>
       <c r="R186" s="0" t="n">
-        <v>31662</v>
+        <v>31661</v>
       </c>
       <c r="S186" s="0" t="n">
-        <v>30908</v>
+        <v>30907</v>
       </c>
       <c r="T186" s="0" t="n">
-        <v>29400</v>
+        <v>29399</v>
       </c>
       <c r="U186" s="0" t="n">
         <v>34</v>
@@ -13617,7 +13617,7 @@
         <v>41463</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>199168</v>
+        <v>199173</v>
       </c>
       <c r="J187" s="0" t="n">
         <v>0.5</v>
@@ -13641,7 +13641,7 @@
         <v>31504</v>
       </c>
       <c r="Q187" s="0" t="n">
-        <v>29513</v>
+        <v>29512</v>
       </c>
       <c r="R187" s="0" t="n">
         <v>28517</v>
@@ -13889,7 +13889,7 @@
         <v>6</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J191" s="0" t="n">
         <v>0.8</v>
@@ -13916,7 +13916,7 @@
         <v>3</v>
       </c>
       <c r="R191" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S191" s="0" t="n">
         <v>2</v>
@@ -13925,10 +13925,10 @@
         <v>2</v>
       </c>
       <c r="U191" s="0" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V191" s="0" t="n">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14093,7 +14093,7 @@
         <v>5262</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>65205</v>
+        <v>65201</v>
       </c>
       <c r="J194" s="0" t="n">
         <v>1.1</v>
@@ -14161,7 +14161,7 @@
         <v>5262</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>87859</v>
+        <v>87858</v>
       </c>
       <c r="J195" s="0" t="n">
         <v>1.5</v>
@@ -14229,7 +14229,7 @@
         <v>5262</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>110512</v>
+        <v>110514</v>
       </c>
       <c r="J196" s="0" t="n">
         <v>2</v>
@@ -14288,7 +14288,7 @@
         <v>25</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>47</v>
@@ -14297,7 +14297,7 @@
         <v>32</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="J197" s="0" t="n">
         <v>2.2</v>
@@ -14356,7 +14356,7 @@
         <v>26</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>47</v>
@@ -14365,7 +14365,7 @@
         <v>32</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="J198" s="0" t="n">
         <v>3.8</v>
@@ -14424,7 +14424,7 @@
         <v>27</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>47</v>
@@ -14433,7 +14433,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="J199" s="0" t="n">
         <v>5.7</v>
@@ -14637,7 +14637,7 @@
         <v>55</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="J202" s="0" t="n">
         <v>3.6</v>
@@ -14696,16 +14696,16 @@
         <v>25</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>23883</v>
+        <v>23887</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>23572</v>
+        <v>23573</v>
       </c>
       <c r="H203" s="0" t="n">
         <v>22876</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>52294</v>
+        <v>52343</v>
       </c>
       <c r="J203" s="0" t="n">
         <v>0.2</v>
@@ -14714,31 +14714,31 @@
         <v>22353</v>
       </c>
       <c r="L203" s="0" t="n">
-        <v>21830</v>
+        <v>21829</v>
       </c>
       <c r="M203" s="0" t="n">
-        <v>21307</v>
+        <v>21306</v>
       </c>
       <c r="N203" s="0" t="n">
-        <v>21046</v>
+        <v>21044</v>
       </c>
       <c r="O203" s="0" t="n">
-        <v>20784</v>
+        <v>20782</v>
       </c>
       <c r="P203" s="0" t="n">
-        <v>20262</v>
+        <v>20259</v>
       </c>
       <c r="Q203" s="0" t="n">
-        <v>19739</v>
+        <v>19736</v>
       </c>
       <c r="R203" s="0" t="n">
-        <v>19477</v>
+        <v>19474</v>
       </c>
       <c r="S203" s="0" t="n">
-        <v>19216</v>
+        <v>19212</v>
       </c>
       <c r="T203" s="0" t="n">
-        <v>18693</v>
+        <v>18689</v>
       </c>
       <c r="U203" s="0" t="n">
         <v>22</v>
@@ -14764,16 +14764,16 @@
         <v>26</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>23883</v>
+        <v>23887</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>23572</v>
+        <v>23573</v>
       </c>
       <c r="H204" s="0" t="n">
         <v>22876</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>69531</v>
+        <v>69562</v>
       </c>
       <c r="J204" s="0" t="n">
         <v>0.3</v>
@@ -14782,37 +14782,37 @@
         <v>22181</v>
       </c>
       <c r="L204" s="0" t="n">
-        <v>21486</v>
+        <v>21485</v>
       </c>
       <c r="M204" s="0" t="n">
-        <v>20790</v>
+        <v>20789</v>
       </c>
       <c r="N204" s="0" t="n">
-        <v>20443</v>
+        <v>20442</v>
       </c>
       <c r="O204" s="0" t="n">
-        <v>20095</v>
+        <v>20094</v>
       </c>
       <c r="P204" s="0" t="n">
-        <v>19400</v>
+        <v>19398</v>
       </c>
       <c r="Q204" s="0" t="n">
-        <v>18704</v>
+        <v>18702</v>
       </c>
       <c r="R204" s="0" t="n">
-        <v>18357</v>
+        <v>18355</v>
       </c>
       <c r="S204" s="0" t="n">
-        <v>18009</v>
+        <v>18007</v>
       </c>
       <c r="T204" s="0" t="n">
-        <v>17314</v>
+        <v>17311</v>
       </c>
       <c r="U204" s="0" t="n">
         <v>28</v>
       </c>
       <c r="V204" s="0" t="n">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14832,22 +14832,22 @@
         <v>27</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>23883</v>
+        <v>23887</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>23572</v>
+        <v>23573</v>
       </c>
       <c r="H205" s="0" t="n">
         <v>22876</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>86769</v>
+        <v>86781</v>
       </c>
       <c r="J205" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="K205" s="0" t="n">
-        <v>22009</v>
+        <v>22008</v>
       </c>
       <c r="L205" s="0" t="n">
         <v>21141</v>
@@ -14862,19 +14862,19 @@
         <v>19405</v>
       </c>
       <c r="P205" s="0" t="n">
-        <v>18538</v>
+        <v>18537</v>
       </c>
       <c r="Q205" s="0" t="n">
-        <v>17670</v>
+        <v>17669</v>
       </c>
       <c r="R205" s="0" t="n">
-        <v>17236</v>
+        <v>17235</v>
       </c>
       <c r="S205" s="0" t="n">
         <v>16802</v>
       </c>
       <c r="T205" s="0" t="n">
-        <v>15935</v>
+        <v>15934</v>
       </c>
       <c r="U205" s="0" t="n">
         <v>33</v>
@@ -14900,7 +14900,7 @@
         <v>25</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>9810</v>
+        <v>9811</v>
       </c>
       <c r="G206" s="0" t="n">
         <v>9345</v>
@@ -14909,7 +14909,7 @@
         <v>8820</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>39149</v>
+        <v>39146</v>
       </c>
       <c r="J206" s="0" t="n">
         <v>0.4</v>
@@ -14921,7 +14921,7 @@
         <v>8037</v>
       </c>
       <c r="M206" s="0" t="n">
-        <v>7645</v>
+        <v>7646</v>
       </c>
       <c r="N206" s="0" t="n">
         <v>7450</v>
@@ -14968,7 +14968,7 @@
         <v>26</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>9810</v>
+        <v>9811</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>9345</v>
@@ -14977,7 +14977,7 @@
         <v>8820</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>52669</v>
+        <v>52666</v>
       </c>
       <c r="J207" s="0" t="n">
         <v>0.6</v>
@@ -15004,13 +15004,13 @@
         <v>5660</v>
       </c>
       <c r="R207" s="0" t="n">
-        <v>5396</v>
+        <v>5397</v>
       </c>
       <c r="S207" s="0" t="n">
         <v>5133</v>
       </c>
       <c r="T207" s="0" t="n">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="U207" s="0" t="n">
         <v>53</v>
@@ -15036,7 +15036,7 @@
         <v>27</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>9810</v>
+        <v>9811</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>9345</v>
@@ -15045,7 +15045,7 @@
         <v>8820</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>66188</v>
+        <v>66185</v>
       </c>
       <c r="J208" s="0" t="n">
         <v>0.7</v>
@@ -15063,7 +15063,7 @@
         <v>6503</v>
       </c>
       <c r="O208" s="0" t="n">
-        <v>6172</v>
+        <v>6173</v>
       </c>
       <c r="P208" s="0" t="n">
         <v>5511</v>
@@ -15113,7 +15113,7 @@
         <v>82</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J209" s="0" t="n">
         <v>0.2</v>
@@ -15152,7 +15152,7 @@
         <v>19</v>
       </c>
       <c r="V209" s="0" t="n">
-        <v>2569</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15181,7 +15181,7 @@
         <v>82</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J210" s="0" t="n">
         <v>1.4</v>
@@ -15249,7 +15249,7 @@
         <v>82</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="J211" s="0" t="n">
         <v>2.7</v>
@@ -15264,7 +15264,7 @@
         <v>20</v>
       </c>
       <c r="N211" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O211" s="0" t="n">
         <v>0</v>
@@ -15317,7 +15317,7 @@
         <v>23377</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>42744</v>
+        <v>42745</v>
       </c>
       <c r="J212" s="0" t="n">
         <v>0.2</v>
@@ -15338,7 +15338,7 @@
         <v>21667</v>
       </c>
       <c r="P212" s="0" t="n">
-        <v>21240</v>
+        <v>21239</v>
       </c>
       <c r="Q212" s="0" t="n">
         <v>20812</v>
@@ -15385,7 +15385,7 @@
         <v>23377</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>57438</v>
+        <v>57435</v>
       </c>
       <c r="J213" s="0" t="n">
         <v>0.2</v>
@@ -15409,7 +15409,7 @@
         <v>20505</v>
       </c>
       <c r="Q213" s="0" t="n">
-        <v>19930</v>
+        <v>19931</v>
       </c>
       <c r="R213" s="0" t="n">
         <v>19643</v>
@@ -15424,7 +15424,7 @@
         <v>22</v>
       </c>
       <c r="V213" s="0" t="n">
-        <v>2426</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15453,7 +15453,7 @@
         <v>23377</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>72132</v>
+        <v>72126</v>
       </c>
       <c r="J214" s="0" t="n">
         <v>0.3</v>
@@ -15471,7 +15471,7 @@
         <v>20852</v>
       </c>
       <c r="O214" s="0" t="n">
-        <v>20491</v>
+        <v>20492</v>
       </c>
       <c r="P214" s="0" t="n">
         <v>19770</v>
@@ -15480,13 +15480,13 @@
         <v>19049</v>
       </c>
       <c r="R214" s="0" t="n">
-        <v>18688</v>
+        <v>18689</v>
       </c>
       <c r="S214" s="0" t="n">
-        <v>18327</v>
+        <v>18328</v>
       </c>
       <c r="T214" s="0" t="n">
-        <v>17606</v>
+        <v>17607</v>
       </c>
       <c r="U214" s="0" t="n">
         <v>27</v>
@@ -15512,7 +15512,7 @@
         <v>25</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>131617</v>
+        <v>131621</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>126164</v>
@@ -15521,7 +15521,7 @@
         <v>117812</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>729137</v>
+        <v>729156</v>
       </c>
       <c r="J215" s="0" t="n">
         <v>0.6</v>
@@ -15530,31 +15530,31 @@
         <v>110520</v>
       </c>
       <c r="L215" s="0" t="n">
-        <v>103229</v>
+        <v>103228</v>
       </c>
       <c r="M215" s="0" t="n">
         <v>95937</v>
       </c>
       <c r="N215" s="0" t="n">
-        <v>92292</v>
+        <v>92291</v>
       </c>
       <c r="O215" s="0" t="n">
-        <v>88646</v>
+        <v>88645</v>
       </c>
       <c r="P215" s="0" t="n">
-        <v>81355</v>
+        <v>81354</v>
       </c>
       <c r="Q215" s="0" t="n">
-        <v>74063</v>
+        <v>74062</v>
       </c>
       <c r="R215" s="0" t="n">
-        <v>70418</v>
+        <v>70416</v>
       </c>
       <c r="S215" s="0" t="n">
-        <v>66772</v>
+        <v>66771</v>
       </c>
       <c r="T215" s="0" t="n">
-        <v>59481</v>
+        <v>59479</v>
       </c>
       <c r="U215" s="0" t="n">
         <v>55</v>
@@ -15580,7 +15580,7 @@
         <v>26</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>131617</v>
+        <v>131621</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>126164</v>
@@ -15589,7 +15589,7 @@
         <v>117812</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>860137</v>
+        <v>860154</v>
       </c>
       <c r="J216" s="0" t="n">
         <v>0.7</v>
@@ -15598,31 +15598,31 @@
         <v>109210</v>
       </c>
       <c r="L216" s="0" t="n">
-        <v>100609</v>
+        <v>100608</v>
       </c>
       <c r="M216" s="0" t="n">
         <v>92007</v>
       </c>
       <c r="N216" s="0" t="n">
-        <v>87707</v>
+        <v>87706</v>
       </c>
       <c r="O216" s="0" t="n">
-        <v>83406</v>
+        <v>83405</v>
       </c>
       <c r="P216" s="0" t="n">
-        <v>74805</v>
+        <v>74804</v>
       </c>
       <c r="Q216" s="0" t="n">
-        <v>66203</v>
+        <v>66202</v>
       </c>
       <c r="R216" s="0" t="n">
-        <v>61903</v>
+        <v>61902</v>
       </c>
       <c r="S216" s="0" t="n">
-        <v>57602</v>
+        <v>57601</v>
       </c>
       <c r="T216" s="0" t="n">
-        <v>49001</v>
+        <v>48999</v>
       </c>
       <c r="U216" s="0" t="n">
         <v>63</v>
@@ -15648,7 +15648,7 @@
         <v>27</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>131617</v>
+        <v>131621</v>
       </c>
       <c r="G217" s="0" t="n">
         <v>126164</v>
@@ -15657,7 +15657,7 @@
         <v>117812</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>991138</v>
+        <v>991153</v>
       </c>
       <c r="J217" s="0" t="n">
         <v>0.8</v>
@@ -15666,31 +15666,31 @@
         <v>107900</v>
       </c>
       <c r="L217" s="0" t="n">
-        <v>97989</v>
+        <v>97988</v>
       </c>
       <c r="M217" s="0" t="n">
         <v>88077</v>
       </c>
       <c r="N217" s="0" t="n">
-        <v>83122</v>
+        <v>83121</v>
       </c>
       <c r="O217" s="0" t="n">
-        <v>78166</v>
+        <v>78165</v>
       </c>
       <c r="P217" s="0" t="n">
-        <v>68255</v>
+        <v>68254</v>
       </c>
       <c r="Q217" s="0" t="n">
-        <v>58343</v>
+        <v>58342</v>
       </c>
       <c r="R217" s="0" t="n">
-        <v>53388</v>
+        <v>53387</v>
       </c>
       <c r="S217" s="0" t="n">
-        <v>48432</v>
+        <v>48431</v>
       </c>
       <c r="T217" s="0" t="n">
-        <v>38520</v>
+        <v>38519</v>
       </c>
       <c r="U217" s="0" t="n">
         <v>71</v>
@@ -15725,7 +15725,7 @@
         <v>2610</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="J218" s="0" t="n">
         <v>0.1</v>
@@ -15743,7 +15743,7 @@
         <v>2528</v>
       </c>
       <c r="O218" s="0" t="n">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="P218" s="0" t="n">
         <v>2493</v>
@@ -15793,7 +15793,7 @@
         <v>2610</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="J219" s="0" t="n">
         <v>0.1</v>
@@ -15861,7 +15861,7 @@
         <v>2610</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>3874</v>
+        <v>3872</v>
       </c>
       <c r="J220" s="0" t="n">
         <v>0.1</v>
@@ -15900,7 +15900,7 @@
         <v>13</v>
       </c>
       <c r="V220" s="0" t="n">
-        <v>2693</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15929,7 +15929,7 @@
         <v>2131</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>53859</v>
+        <v>53858</v>
       </c>
       <c r="J221" s="0" t="n">
         <v>2.1</v>
@@ -16065,7 +16065,7 @@
         <v>2131</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>98550</v>
+        <v>98549</v>
       </c>
       <c r="J223" s="0" t="n">
         <v>4.1</v>
@@ -16127,13 +16127,13 @@
         <v>24132</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>24110</v>
+        <v>24111</v>
       </c>
       <c r="H224" s="0" t="n">
         <v>23974</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>8604</v>
+        <v>8636</v>
       </c>
       <c r="J224" s="0" t="n">
         <v>0</v>
@@ -16145,34 +16145,34 @@
         <v>23802</v>
       </c>
       <c r="M224" s="0" t="n">
-        <v>23716</v>
+        <v>23715</v>
       </c>
       <c r="N224" s="0" t="n">
-        <v>23673</v>
+        <v>23672</v>
       </c>
       <c r="O224" s="0" t="n">
-        <v>23630</v>
+        <v>23629</v>
       </c>
       <c r="P224" s="0" t="n">
-        <v>23544</v>
+        <v>23543</v>
       </c>
       <c r="Q224" s="0" t="n">
-        <v>23458</v>
+        <v>23456</v>
       </c>
       <c r="R224" s="0" t="n">
-        <v>23415</v>
+        <v>23413</v>
       </c>
       <c r="S224" s="0" t="n">
-        <v>23372</v>
+        <v>23370</v>
       </c>
       <c r="T224" s="0" t="n">
-        <v>23286</v>
+        <v>23284</v>
       </c>
       <c r="U224" s="0" t="n">
         <v>4</v>
       </c>
       <c r="V224" s="0" t="n">
-        <v>4806</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16195,52 +16195,52 @@
         <v>24132</v>
       </c>
       <c r="G225" s="0" t="n">
-        <v>24110</v>
+        <v>24111</v>
       </c>
       <c r="H225" s="0" t="n">
         <v>23974</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>12950</v>
+        <v>12996</v>
       </c>
       <c r="J225" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="K225" s="0" t="n">
-        <v>23845</v>
+        <v>23844</v>
       </c>
       <c r="L225" s="0" t="n">
         <v>23715</v>
       </c>
       <c r="M225" s="0" t="n">
-        <v>23586</v>
+        <v>23585</v>
       </c>
       <c r="N225" s="0" t="n">
-        <v>23521</v>
+        <v>23520</v>
       </c>
       <c r="O225" s="0" t="n">
-        <v>23456</v>
+        <v>23455</v>
       </c>
       <c r="P225" s="0" t="n">
-        <v>23327</v>
+        <v>23325</v>
       </c>
       <c r="Q225" s="0" t="n">
-        <v>23197</v>
+        <v>23195</v>
       </c>
       <c r="R225" s="0" t="n">
-        <v>23133</v>
+        <v>23130</v>
       </c>
       <c r="S225" s="0" t="n">
-        <v>23068</v>
+        <v>23065</v>
       </c>
       <c r="T225" s="0" t="n">
-        <v>22938</v>
+        <v>22935</v>
       </c>
       <c r="U225" s="0" t="n">
         <v>5</v>
       </c>
       <c r="V225" s="0" t="n">
-        <v>3871</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16263,13 +16263,13 @@
         <v>24132</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>24110</v>
+        <v>24111</v>
       </c>
       <c r="H226" s="0" t="n">
         <v>23974</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>17295</v>
+        <v>17356</v>
       </c>
       <c r="J226" s="0" t="n">
         <v>0.1</v>
@@ -16278,37 +16278,37 @@
         <v>23801</v>
       </c>
       <c r="L226" s="0" t="n">
-        <v>23629</v>
+        <v>23627</v>
       </c>
       <c r="M226" s="0" t="n">
-        <v>23456</v>
+        <v>23454</v>
       </c>
       <c r="N226" s="0" t="n">
-        <v>23369</v>
+        <v>23367</v>
       </c>
       <c r="O226" s="0" t="n">
-        <v>23283</v>
+        <v>23280</v>
       </c>
       <c r="P226" s="0" t="n">
-        <v>23110</v>
+        <v>23107</v>
       </c>
       <c r="Q226" s="0" t="n">
-        <v>22937</v>
+        <v>22933</v>
       </c>
       <c r="R226" s="0" t="n">
-        <v>22850</v>
+        <v>22846</v>
       </c>
       <c r="S226" s="0" t="n">
-        <v>22764</v>
+        <v>22760</v>
       </c>
       <c r="T226" s="0" t="n">
-        <v>22591</v>
+        <v>22586</v>
       </c>
       <c r="U226" s="0" t="n">
         <v>6</v>
       </c>
       <c r="V226" s="0" t="n">
-        <v>3406</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16405,7 +16405,7 @@
         <v>42</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J228" s="0" t="n">
         <v>0.9</v>
@@ -16444,7 +16444,7 @@
         <v>78</v>
       </c>
       <c r="V228" s="0" t="n">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16532,16 +16532,16 @@
         <v>25</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>4931</v>
+        <v>4934</v>
       </c>
       <c r="G230" s="0" t="n">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="H230" s="0" t="n">
         <v>3326</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>67372</v>
+        <v>67385</v>
       </c>
       <c r="J230" s="0" t="n">
         <v>1.6</v>
@@ -16553,10 +16553,10 @@
         <v>1978</v>
       </c>
       <c r="M230" s="0" t="n">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="N230" s="0" t="n">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O230" s="0" t="n">
         <v>631</v>
@@ -16600,25 +16600,25 @@
         <v>26</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>4931</v>
+        <v>4934</v>
       </c>
       <c r="G231" s="0" t="n">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="H231" s="0" t="n">
         <v>3326</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>114594</v>
+        <v>114665</v>
       </c>
       <c r="J231" s="0" t="n">
         <v>2.9</v>
       </c>
       <c r="K231" s="0" t="n">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="L231" s="0" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M231" s="0" t="n">
         <v>0</v>
@@ -16668,25 +16668,25 @@
         <v>27</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>4931</v>
+        <v>4934</v>
       </c>
       <c r="G232" s="0" t="n">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="H232" s="0" t="n">
         <v>3326</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>161815</v>
+        <v>161946</v>
       </c>
       <c r="J232" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="K232" s="0" t="n">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="L232" s="0" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M232" s="0" t="n">
         <v>0</v>
@@ -16745,7 +16745,7 @@
         <v>841</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>35937</v>
+        <v>35932</v>
       </c>
       <c r="J233" s="0" t="n">
         <v>3.4</v>
@@ -16813,7 +16813,7 @@
         <v>841</v>
       </c>
       <c r="I234" s="0" t="n">
-        <v>43364</v>
+        <v>43356</v>
       </c>
       <c r="J234" s="0" t="n">
         <v>4.2</v>
@@ -16881,7 +16881,7 @@
         <v>841</v>
       </c>
       <c r="I235" s="0" t="n">
-        <v>50791</v>
+        <v>50781</v>
       </c>
       <c r="J235" s="0" t="n">
         <v>5.1</v>
@@ -17017,7 +17017,7 @@
         <v>290</v>
       </c>
       <c r="I237" s="0" t="n">
-        <v>4789</v>
+        <v>4788</v>
       </c>
       <c r="J237" s="0" t="n">
         <v>1.5</v>
@@ -17085,7 +17085,7 @@
         <v>290</v>
       </c>
       <c r="I238" s="0" t="n">
-        <v>5332</v>
+        <v>5328</v>
       </c>
       <c r="J238" s="0" t="n">
         <v>1.7</v>
@@ -17144,7 +17144,7 @@
         <v>25</v>
       </c>
       <c r="F239" s="0" t="n">
-        <v>7710</v>
+        <v>7724</v>
       </c>
       <c r="G239" s="0" t="n">
         <v>6368</v>
@@ -17153,7 +17153,7 @@
         <v>3872</v>
       </c>
       <c r="I239" s="0" t="n">
-        <v>192085</v>
+        <v>192139</v>
       </c>
       <c r="J239" s="0" t="n">
         <v>3.5</v>
@@ -17162,7 +17162,7 @@
         <v>1951</v>
       </c>
       <c r="L239" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M239" s="0" t="n">
         <v>0</v>
@@ -17212,7 +17212,7 @@
         <v>26</v>
       </c>
       <c r="F240" s="0" t="n">
-        <v>7710</v>
+        <v>7724</v>
       </c>
       <c r="G240" s="0" t="n">
         <v>6368</v>
@@ -17221,13 +17221,13 @@
         <v>3872</v>
       </c>
       <c r="I240" s="0" t="n">
-        <v>258740</v>
+        <v>258785</v>
       </c>
       <c r="J240" s="0" t="n">
         <v>5.1</v>
       </c>
       <c r="K240" s="0" t="n">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L240" s="0" t="n">
         <v>0</v>
@@ -17280,7 +17280,7 @@
         <v>27</v>
       </c>
       <c r="F241" s="0" t="n">
-        <v>7710</v>
+        <v>7724</v>
       </c>
       <c r="G241" s="0" t="n">
         <v>6368</v>
@@ -17289,7 +17289,7 @@
         <v>3872</v>
       </c>
       <c r="I241" s="0" t="n">
-        <v>325396</v>
+        <v>325431</v>
       </c>
       <c r="J241" s="0" t="n">
         <v>6.9</v>
@@ -17357,7 +17357,7 @@
         <v>749</v>
       </c>
       <c r="I242" s="0" t="n">
-        <v>10121</v>
+        <v>10117</v>
       </c>
       <c r="J242" s="0" t="n">
         <v>1.2</v>
@@ -17384,7 +17384,7 @@
         <v>142</v>
       </c>
       <c r="R242" s="0" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S242" s="0" t="n">
         <v>41</v>
@@ -17425,7 +17425,7 @@
         <v>749</v>
       </c>
       <c r="I243" s="0" t="n">
-        <v>18935</v>
+        <v>18933</v>
       </c>
       <c r="J243" s="0" t="n">
         <v>2.3</v>
@@ -17434,13 +17434,13 @@
         <v>560</v>
       </c>
       <c r="L243" s="0" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M243" s="0" t="n">
         <v>181</v>
       </c>
       <c r="N243" s="0" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O243" s="0" t="n">
         <v>0</v>
@@ -17493,7 +17493,7 @@
         <v>749</v>
       </c>
       <c r="I244" s="0" t="n">
-        <v>27749</v>
+        <v>27750</v>
       </c>
       <c r="J244" s="0" t="n">
         <v>3.6</v>
@@ -17552,7 +17552,7 @@
         <v>25</v>
       </c>
       <c r="F245" s="0" t="n">
-        <v>8909</v>
+        <v>8912</v>
       </c>
       <c r="G245" s="0" t="n">
         <v>8707</v>
@@ -17561,7 +17561,7 @@
         <v>7805</v>
       </c>
       <c r="I245" s="0" t="n">
-        <v>65019</v>
+        <v>65041</v>
       </c>
       <c r="J245" s="0" t="n">
         <v>0.8</v>
@@ -17573,34 +17573,34 @@
         <v>6504</v>
       </c>
       <c r="M245" s="0" t="n">
-        <v>5854</v>
+        <v>5853</v>
       </c>
       <c r="N245" s="0" t="n">
-        <v>5529</v>
+        <v>5528</v>
       </c>
       <c r="O245" s="0" t="n">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="P245" s="0" t="n">
-        <v>4554</v>
+        <v>4552</v>
       </c>
       <c r="Q245" s="0" t="n">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="R245" s="0" t="n">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="S245" s="0" t="n">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="T245" s="0" t="n">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="U245" s="0" t="n">
         <v>71</v>
       </c>
       <c r="V245" s="0" t="n">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17620,7 +17620,7 @@
         <v>26</v>
       </c>
       <c r="F246" s="0" t="n">
-        <v>8909</v>
+        <v>8912</v>
       </c>
       <c r="G246" s="0" t="n">
         <v>8707</v>
@@ -17629,40 +17629,40 @@
         <v>7805</v>
       </c>
       <c r="I246" s="0" t="n">
-        <v>92196</v>
+        <v>92211</v>
       </c>
       <c r="J246" s="0" t="n">
         <v>1.1</v>
       </c>
       <c r="K246" s="0" t="n">
-        <v>6883</v>
+        <v>6882</v>
       </c>
       <c r="L246" s="0" t="n">
-        <v>5961</v>
+        <v>5960</v>
       </c>
       <c r="M246" s="0" t="n">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="N246" s="0" t="n">
-        <v>4578</v>
+        <v>4577</v>
       </c>
       <c r="O246" s="0" t="n">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="P246" s="0" t="n">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="Q246" s="0" t="n">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="R246" s="0" t="n">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="S246" s="0" t="n">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="T246" s="0" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U246" s="0" t="n">
         <v>95</v>
@@ -17688,7 +17688,7 @@
         <v>27</v>
       </c>
       <c r="F247" s="0" t="n">
-        <v>8909</v>
+        <v>8912</v>
       </c>
       <c r="G247" s="0" t="n">
         <v>8707</v>
@@ -17697,7 +17697,7 @@
         <v>7805</v>
       </c>
       <c r="I247" s="0" t="n">
-        <v>119374</v>
+        <v>119380</v>
       </c>
       <c r="J247" s="0" t="n">
         <v>1.5</v>
@@ -17715,7 +17715,7 @@
         <v>3626</v>
       </c>
       <c r="O247" s="0" t="n">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="P247" s="0" t="n">
         <v>1836</v>
@@ -17765,7 +17765,7 @@
         <v>4543</v>
       </c>
       <c r="I248" s="0" t="n">
-        <v>100885</v>
+        <v>100897</v>
       </c>
       <c r="J248" s="0" t="n">
         <v>1.9</v>
@@ -17774,16 +17774,16 @@
         <v>3534</v>
       </c>
       <c r="L248" s="0" t="n">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="M248" s="0" t="n">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="N248" s="0" t="n">
         <v>1012</v>
       </c>
       <c r="O248" s="0" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P248" s="0" t="n">
         <v>0</v>
@@ -17833,7 +17833,7 @@
         <v>4543</v>
       </c>
       <c r="I249" s="0" t="n">
-        <v>125713</v>
+        <v>125717</v>
       </c>
       <c r="J249" s="0" t="n">
         <v>2.5</v>
@@ -17901,7 +17901,7 @@
         <v>4543</v>
       </c>
       <c r="I250" s="0" t="n">
-        <v>150541</v>
+        <v>150537</v>
       </c>
       <c r="J250" s="0" t="n">
         <v>3</v>
@@ -18037,7 +18037,7 @@
         <v>38</v>
       </c>
       <c r="I252" s="0" t="n">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="J252" s="0" t="n">
         <v>6.8</v>
@@ -18105,7 +18105,7 @@
         <v>38</v>
       </c>
       <c r="I253" s="0" t="n">
-        <v>4729</v>
+        <v>4731</v>
       </c>
       <c r="J253" s="0" t="n">
         <v>10.4</v>
@@ -18241,7 +18241,7 @@
         <v>43</v>
       </c>
       <c r="I255" s="0" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J255" s="0" t="n">
         <v>1</v>
@@ -18277,10 +18277,10 @@
         <v>9</v>
       </c>
       <c r="U255" s="0" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V255" s="0" t="n">
-        <v>2119</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18309,10 +18309,10 @@
         <v>43</v>
       </c>
       <c r="I256" s="0" t="n">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J256" s="0" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K256" s="0" t="n">
         <v>36</v>
@@ -18445,7 +18445,7 @@
         <v>12</v>
       </c>
       <c r="I258" s="0" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J258" s="0" t="n">
         <v>3.3</v>
@@ -18513,7 +18513,7 @@
         <v>12</v>
       </c>
       <c r="I259" s="0" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="J259" s="0" t="n">
         <v>6.6</v>
@@ -18572,7 +18572,7 @@
         <v>25</v>
       </c>
       <c r="F260" s="0" t="n">
-        <v>7777</v>
+        <v>7780</v>
       </c>
       <c r="G260" s="0" t="n">
         <v>7243</v>
@@ -18581,7 +18581,7 @@
         <v>6258</v>
       </c>
       <c r="I260" s="0" t="n">
-        <v>68659</v>
+        <v>68671</v>
       </c>
       <c r="J260" s="0" t="n">
         <v>1</v>
@@ -18590,31 +18590,31 @@
         <v>5571</v>
       </c>
       <c r="L260" s="0" t="n">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="M260" s="0" t="n">
         <v>4198</v>
       </c>
       <c r="N260" s="0" t="n">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="O260" s="0" t="n">
         <v>3511</v>
       </c>
       <c r="P260" s="0" t="n">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="Q260" s="0" t="n">
         <v>2138</v>
       </c>
       <c r="R260" s="0" t="n">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="S260" s="0" t="n">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="T260" s="0" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U260" s="0" t="n">
         <v>90</v>
@@ -18640,7 +18640,7 @@
         <v>26</v>
       </c>
       <c r="F261" s="0" t="n">
-        <v>7777</v>
+        <v>7780</v>
       </c>
       <c r="G261" s="0" t="n">
         <v>7243</v>
@@ -18649,7 +18649,7 @@
         <v>6258</v>
       </c>
       <c r="I261" s="0" t="n">
-        <v>100785</v>
+        <v>100796</v>
       </c>
       <c r="J261" s="0" t="n">
         <v>1.5</v>
@@ -18670,10 +18670,10 @@
         <v>2226</v>
       </c>
       <c r="P261" s="0" t="n">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Q261" s="0" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R261" s="0" t="n">
         <v>0</v>
@@ -18708,7 +18708,7 @@
         <v>27</v>
       </c>
       <c r="F262" s="0" t="n">
-        <v>7777</v>
+        <v>7780</v>
       </c>
       <c r="G262" s="0" t="n">
         <v>7243</v>
@@ -18717,7 +18717,7 @@
         <v>6258</v>
       </c>
       <c r="I262" s="0" t="n">
-        <v>132910</v>
+        <v>132921</v>
       </c>
       <c r="J262" s="0" t="n">
         <v>2</v>
@@ -18726,7 +18726,7 @@
         <v>4929</v>
       </c>
       <c r="L262" s="0" t="n">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>2270</v>
@@ -18785,7 +18785,7 @@
         <v>134</v>
       </c>
       <c r="I263" s="0" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J263" s="0" t="n">
         <v>0.3</v>
@@ -18824,7 +18824,7 @@
         <v>25</v>
       </c>
       <c r="V263" s="0" t="n">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18921,7 +18921,7 @@
         <v>134</v>
       </c>
       <c r="I265" s="0" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="J265" s="0" t="n">
         <v>0.8</v>
@@ -18945,7 +18945,7 @@
         <v>81</v>
       </c>
       <c r="Q265" s="0" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R265" s="0" t="n">
         <v>65</v>
@@ -18989,7 +18989,7 @@
         <v>160</v>
       </c>
       <c r="I266" s="0" t="n">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="J266" s="0" t="n">
         <v>1.3</v>
@@ -19057,7 +19057,7 @@
         <v>160</v>
       </c>
       <c r="I267" s="0" t="n">
-        <v>5065</v>
+        <v>5066</v>
       </c>
       <c r="J267" s="0" t="n">
         <v>2.9</v>
@@ -19125,7 +19125,7 @@
         <v>160</v>
       </c>
       <c r="I268" s="0" t="n">
-        <v>7635</v>
+        <v>7637</v>
       </c>
       <c r="J268" s="0" t="n">
         <v>4.7</v>
@@ -19261,7 +19261,7 @@
         <v>124</v>
       </c>
       <c r="I270" s="0" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J270" s="0" t="n">
         <v>0.5</v>
@@ -19282,16 +19282,16 @@
         <v>96</v>
       </c>
       <c r="P270" s="0" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q270" s="0" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R270" s="0" t="n">
         <v>78</v>
       </c>
       <c r="S270" s="0" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T270" s="0" t="n">
         <v>67</v>
@@ -19300,7 +19300,7 @@
         <v>52</v>
       </c>
       <c r="V270" s="0" t="n">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19329,7 +19329,7 @@
         <v>124</v>
       </c>
       <c r="I271" s="0" t="n">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="J271" s="0" t="n">
         <v>0.9</v>
@@ -19356,7 +19356,7 @@
         <v>55</v>
       </c>
       <c r="R271" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S271" s="0" t="n">
         <v>44</v>
@@ -19388,7 +19388,7 @@
         <v>25</v>
       </c>
       <c r="F272" s="0" t="n">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="G272" s="0" t="n">
         <v>2365</v>
@@ -19397,7 +19397,7 @@
         <v>1380</v>
       </c>
       <c r="I272" s="0" t="n">
-        <v>84207</v>
+        <v>84208</v>
       </c>
       <c r="J272" s="0" t="n">
         <v>4.3</v>
@@ -19456,7 +19456,7 @@
         <v>26</v>
       </c>
       <c r="F273" s="0" t="n">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="G273" s="0" t="n">
         <v>2365</v>
@@ -19465,10 +19465,10 @@
         <v>1380</v>
       </c>
       <c r="I273" s="0" t="n">
-        <v>112450</v>
+        <v>112453</v>
       </c>
       <c r="J273" s="0" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="K273" s="0" t="n">
         <v>255</v>
@@ -19524,7 +19524,7 @@
         <v>27</v>
       </c>
       <c r="F274" s="0" t="n">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="G274" s="0" t="n">
         <v>2365</v>
@@ -19533,7 +19533,7 @@
         <v>1380</v>
       </c>
       <c r="I274" s="0" t="n">
-        <v>140694</v>
+        <v>140698</v>
       </c>
       <c r="J274" s="0" t="n">
         <v>8.6</v>
@@ -19601,7 +19601,7 @@
         <v>164</v>
       </c>
       <c r="I275" s="0" t="n">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="J275" s="0" t="n">
         <v>1.8</v>
@@ -19669,7 +19669,7 @@
         <v>164</v>
       </c>
       <c r="I276" s="0" t="n">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="J276" s="0" t="n">
         <v>2.5</v>
@@ -19737,7 +19737,7 @@
         <v>164</v>
       </c>
       <c r="I277" s="0" t="n">
-        <v>5634</v>
+        <v>5635</v>
       </c>
       <c r="J277" s="0" t="n">
         <v>3.1</v>
@@ -19805,7 +19805,7 @@
         <v>1090</v>
       </c>
       <c r="I278" s="0" t="n">
-        <v>9540</v>
+        <v>9538</v>
       </c>
       <c r="J278" s="0" t="n">
         <v>0.8</v>
@@ -19829,7 +19829,7 @@
         <v>613</v>
       </c>
       <c r="Q278" s="0" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="R278" s="0" t="n">
         <v>470</v>
@@ -19873,7 +19873,7 @@
         <v>1090</v>
       </c>
       <c r="I279" s="0" t="n">
-        <v>13598</v>
+        <v>13595</v>
       </c>
       <c r="J279" s="0" t="n">
         <v>1.2</v>
@@ -19941,7 +19941,7 @@
         <v>1090</v>
       </c>
       <c r="I280" s="0" t="n">
-        <v>17655</v>
+        <v>17652</v>
       </c>
       <c r="J280" s="0" t="n">
         <v>1.6</v>
@@ -20009,7 +20009,7 @@
         <v>65</v>
       </c>
       <c r="I281" s="0" t="n">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="J281" s="0" t="n">
         <v>2.4</v>
@@ -20077,7 +20077,7 @@
         <v>65</v>
       </c>
       <c r="I282" s="0" t="n">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="J282" s="0" t="n">
         <v>4.6</v>
@@ -20145,7 +20145,7 @@
         <v>65</v>
       </c>
       <c r="I283" s="0" t="n">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="J283" s="0" t="n">
         <v>7.4</v>
@@ -20213,7 +20213,7 @@
         <v>745</v>
       </c>
       <c r="I284" s="0" t="n">
-        <v>30901</v>
+        <v>30902</v>
       </c>
       <c r="J284" s="0" t="n">
         <v>3.2</v>
@@ -20281,7 +20281,7 @@
         <v>745</v>
       </c>
       <c r="I285" s="0" t="n">
-        <v>43532</v>
+        <v>43528</v>
       </c>
       <c r="J285" s="0" t="n">
         <v>4.9</v>
@@ -20349,7 +20349,7 @@
         <v>745</v>
       </c>
       <c r="I286" s="0" t="n">
-        <v>56163</v>
+        <v>56154</v>
       </c>
       <c r="J286" s="0" t="n">
         <v>6.8</v>
@@ -20553,7 +20553,7 @@
         <v>80</v>
       </c>
       <c r="I289" s="0" t="n">
-        <v>5075</v>
+        <v>5076</v>
       </c>
       <c r="J289" s="0" t="n">
         <v>5.6</v>
@@ -20621,7 +20621,7 @@
         <v>1777</v>
       </c>
       <c r="I290" s="0" t="n">
-        <v>8100</v>
+        <v>8101</v>
       </c>
       <c r="J290" s="0" t="n">
         <v>0.4</v>
@@ -20689,7 +20689,7 @@
         <v>1777</v>
       </c>
       <c r="I291" s="0" t="n">
-        <v>14193</v>
+        <v>14196</v>
       </c>
       <c r="J291" s="0" t="n">
         <v>0.8</v>
@@ -20757,7 +20757,7 @@
         <v>1777</v>
       </c>
       <c r="I292" s="0" t="n">
-        <v>20286</v>
+        <v>20292</v>
       </c>
       <c r="J292" s="0" t="n">
         <v>1.1</v>
@@ -20772,7 +20772,7 @@
         <v>1168</v>
       </c>
       <c r="N292" s="0" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O292" s="0" t="n">
         <v>965</v>
@@ -20781,16 +20781,16 @@
         <v>762</v>
       </c>
       <c r="Q292" s="0" t="n">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R292" s="0" t="n">
         <v>458</v>
       </c>
       <c r="S292" s="0" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T292" s="0" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U292" s="0" t="n">
         <v>93</v>
@@ -20893,7 +20893,7 @@
         <v>782</v>
       </c>
       <c r="I294" s="0" t="n">
-        <v>5949</v>
+        <v>5948</v>
       </c>
       <c r="J294" s="0" t="n">
         <v>0.7</v>
@@ -20905,7 +20905,7 @@
         <v>663</v>
       </c>
       <c r="M294" s="0" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N294" s="0" t="n">
         <v>574</v>
@@ -20961,7 +20961,7 @@
         <v>782</v>
       </c>
       <c r="I295" s="0" t="n">
-        <v>7773</v>
+        <v>7772</v>
       </c>
       <c r="J295" s="0" t="n">
         <v>1</v>
@@ -21165,7 +21165,7 @@
         <v>1795</v>
       </c>
       <c r="I298" s="0" t="n">
-        <v>13226</v>
+        <v>13225</v>
       </c>
       <c r="J298" s="0" t="n">
         <v>0.7</v>
@@ -21189,7 +21189,7 @@
         <v>1134</v>
       </c>
       <c r="Q298" s="0" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="R298" s="0" t="n">
         <v>935</v>
@@ -21437,7 +21437,7 @@
         <v>2792</v>
       </c>
       <c r="I302" s="0" t="n">
-        <v>77653</v>
+        <v>77657</v>
       </c>
       <c r="J302" s="0" t="n">
         <v>2.2</v>
@@ -21505,7 +21505,7 @@
         <v>2792</v>
       </c>
       <c r="I303" s="0" t="n">
-        <v>110142</v>
+        <v>110144</v>
       </c>
       <c r="J303" s="0" t="n">
         <v>3.3</v>
@@ -21573,7 +21573,7 @@
         <v>2792</v>
       </c>
       <c r="I304" s="0" t="n">
-        <v>142631</v>
+        <v>142632</v>
       </c>
       <c r="J304" s="0" t="n">
         <v>4.5</v>
@@ -21641,7 +21641,7 @@
         <v>924</v>
       </c>
       <c r="I305" s="0" t="n">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="J305" s="0" t="n">
         <v>0.3</v>
@@ -21674,13 +21674,13 @@
         <v>710</v>
       </c>
       <c r="T305" s="0" t="n">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U305" s="0" t="n">
         <v>32</v>
       </c>
       <c r="V305" s="0" t="n">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21777,7 +21777,7 @@
         <v>924</v>
       </c>
       <c r="I307" s="0" t="n">
-        <v>5869</v>
+        <v>5868</v>
       </c>
       <c r="J307" s="0" t="n">
         <v>0.6</v>
@@ -22049,7 +22049,7 @@
         <v>5537</v>
       </c>
       <c r="I311" s="0" t="n">
-        <v>46215</v>
+        <v>46221</v>
       </c>
       <c r="J311" s="0" t="n">
         <v>0.8</v>
@@ -22064,10 +22064,10 @@
         <v>4151</v>
       </c>
       <c r="N311" s="0" t="n">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="O311" s="0" t="n">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="P311" s="0" t="n">
         <v>3226</v>
@@ -22082,7 +22082,7 @@
         <v>2302</v>
       </c>
       <c r="T311" s="0" t="n">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="U311" s="0" t="n">
         <v>75</v>
@@ -22185,7 +22185,7 @@
         <v>5537</v>
       </c>
       <c r="I313" s="0" t="n">
-        <v>84595</v>
+        <v>84590</v>
       </c>
       <c r="J313" s="0" t="n">
         <v>1.5</v>
@@ -22200,19 +22200,19 @@
         <v>2999</v>
       </c>
       <c r="N313" s="0" t="n">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="O313" s="0" t="n">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="P313" s="0" t="n">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="Q313" s="0" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="R313" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S313" s="0" t="n">
         <v>0</v>
@@ -22244,7 +22244,7 @@
         <v>25</v>
       </c>
       <c r="F314" s="0" t="n">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="G314" s="0" t="n">
         <v>2723</v>
@@ -22253,7 +22253,7 @@
         <v>2201</v>
       </c>
       <c r="I314" s="0" t="n">
-        <v>37390</v>
+        <v>37393</v>
       </c>
       <c r="J314" s="0" t="n">
         <v>1.5</v>
@@ -22312,7 +22312,7 @@
         <v>26</v>
       </c>
       <c r="F315" s="0" t="n">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="G315" s="0" t="n">
         <v>2723</v>
@@ -22321,7 +22321,7 @@
         <v>2201</v>
       </c>
       <c r="I315" s="0" t="n">
-        <v>54280</v>
+        <v>54283</v>
       </c>
       <c r="J315" s="0" t="n">
         <v>2.2</v>
@@ -22380,7 +22380,7 @@
         <v>27</v>
       </c>
       <c r="F316" s="0" t="n">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="G316" s="0" t="n">
         <v>2723</v>
@@ -22389,7 +22389,7 @@
         <v>2201</v>
       </c>
       <c r="I316" s="0" t="n">
-        <v>71170</v>
+        <v>71172</v>
       </c>
       <c r="J316" s="0" t="n">
         <v>3</v>
@@ -22448,7 +22448,7 @@
         <v>25</v>
       </c>
       <c r="F317" s="0" t="n">
-        <v>141244</v>
+        <v>141262</v>
       </c>
       <c r="G317" s="0" t="n">
         <v>127699</v>
@@ -22457,16 +22457,16 @@
         <v>116317</v>
       </c>
       <c r="I317" s="0" t="n">
-        <v>932180</v>
+        <v>932196</v>
       </c>
       <c r="J317" s="0" t="n">
         <v>0.8</v>
       </c>
       <c r="K317" s="0" t="n">
-        <v>106996</v>
+        <v>106995</v>
       </c>
       <c r="L317" s="0" t="n">
-        <v>97674</v>
+        <v>97673</v>
       </c>
       <c r="M317" s="0" t="n">
         <v>88352</v>
@@ -22481,16 +22481,16 @@
         <v>69708</v>
       </c>
       <c r="Q317" s="0" t="n">
-        <v>60387</v>
+        <v>60386</v>
       </c>
       <c r="R317" s="0" t="n">
-        <v>55726</v>
+        <v>55725</v>
       </c>
       <c r="S317" s="0" t="n">
-        <v>51065</v>
+        <v>51064</v>
       </c>
       <c r="T317" s="0" t="n">
-        <v>41743</v>
+        <v>41742</v>
       </c>
       <c r="U317" s="0" t="n">
         <v>70</v>
@@ -22516,7 +22516,7 @@
         <v>26</v>
       </c>
       <c r="F318" s="0" t="n">
-        <v>141244</v>
+        <v>141262</v>
       </c>
       <c r="G318" s="0" t="n">
         <v>127699</v>
@@ -22525,7 +22525,7 @@
         <v>116317</v>
       </c>
       <c r="I318" s="0" t="n">
-        <v>1215436</v>
+        <v>1215487</v>
       </c>
       <c r="J318" s="0" t="n">
         <v>1</v>
@@ -22534,31 +22534,31 @@
         <v>104163</v>
       </c>
       <c r="L318" s="0" t="n">
-        <v>92009</v>
+        <v>92008</v>
       </c>
       <c r="M318" s="0" t="n">
-        <v>79854</v>
+        <v>79853</v>
       </c>
       <c r="N318" s="0" t="n">
-        <v>73777</v>
+        <v>73775</v>
       </c>
       <c r="O318" s="0" t="n">
-        <v>67700</v>
+        <v>67698</v>
       </c>
       <c r="P318" s="0" t="n">
-        <v>55546</v>
+        <v>55543</v>
       </c>
       <c r="Q318" s="0" t="n">
-        <v>43391</v>
+        <v>43388</v>
       </c>
       <c r="R318" s="0" t="n">
-        <v>37314</v>
+        <v>37311</v>
       </c>
       <c r="S318" s="0" t="n">
-        <v>31237</v>
+        <v>31233</v>
       </c>
       <c r="T318" s="0" t="n">
-        <v>19083</v>
+        <v>19078</v>
       </c>
       <c r="U318" s="0" t="n">
         <v>86</v>
@@ -22584,7 +22584,7 @@
         <v>27</v>
       </c>
       <c r="F319" s="0" t="n">
-        <v>141244</v>
+        <v>141262</v>
       </c>
       <c r="G319" s="0" t="n">
         <v>127699</v>
@@ -22593,7 +22593,7 @@
         <v>116317</v>
       </c>
       <c r="I319" s="0" t="n">
-        <v>1498693</v>
+        <v>1498778</v>
       </c>
       <c r="J319" s="0" t="n">
         <v>1.2</v>
@@ -22602,28 +22602,28 @@
         <v>101330</v>
       </c>
       <c r="L319" s="0" t="n">
-        <v>86344</v>
+        <v>86342</v>
       </c>
       <c r="M319" s="0" t="n">
-        <v>71357</v>
+        <v>71354</v>
       </c>
       <c r="N319" s="0" t="n">
-        <v>63863</v>
+        <v>63860</v>
       </c>
       <c r="O319" s="0" t="n">
-        <v>56370</v>
+        <v>56366</v>
       </c>
       <c r="P319" s="0" t="n">
-        <v>41383</v>
+        <v>41378</v>
       </c>
       <c r="Q319" s="0" t="n">
-        <v>26396</v>
+        <v>26391</v>
       </c>
       <c r="R319" s="0" t="n">
-        <v>18902</v>
+        <v>18897</v>
       </c>
       <c r="S319" s="0" t="n">
-        <v>11409</v>
+        <v>11403</v>
       </c>
       <c r="T319" s="0" t="n">
         <v>0</v>
@@ -22661,7 +22661,7 @@
         <v>8254</v>
       </c>
       <c r="I320" s="0" t="n">
-        <v>138267</v>
+        <v>138277</v>
       </c>
       <c r="J320" s="0" t="n">
         <v>1.5</v>
@@ -22673,7 +22673,7 @@
         <v>5488</v>
       </c>
       <c r="M320" s="0" t="n">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="N320" s="0" t="n">
         <v>3414</v>
@@ -22729,7 +22729,7 @@
         <v>8254</v>
       </c>
       <c r="I321" s="0" t="n">
-        <v>163537</v>
+        <v>163531</v>
       </c>
       <c r="J321" s="0" t="n">
         <v>1.8</v>
@@ -22747,7 +22747,7 @@
         <v>2530</v>
       </c>
       <c r="O321" s="0" t="n">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="P321" s="0" t="n">
         <v>77</v>
@@ -22797,7 +22797,7 @@
         <v>8254</v>
       </c>
       <c r="I322" s="0" t="n">
-        <v>188807</v>
+        <v>188784</v>
       </c>
       <c r="J322" s="0" t="n">
         <v>2.1</v>
@@ -22865,7 +22865,7 @@
         <v>20115</v>
       </c>
       <c r="I323" s="0" t="n">
-        <v>219391</v>
+        <v>219396</v>
       </c>
       <c r="J323" s="0" t="n">
         <v>1</v>
@@ -23001,7 +23001,7 @@
         <v>20115</v>
       </c>
       <c r="I325" s="0" t="n">
-        <v>319146</v>
+        <v>319140</v>
       </c>
       <c r="J325" s="0" t="n">
         <v>1.5</v>
@@ -23016,13 +23016,13 @@
         <v>10540</v>
       </c>
       <c r="N325" s="0" t="n">
-        <v>8944</v>
+        <v>8945</v>
       </c>
       <c r="O325" s="0" t="n">
         <v>7349</v>
       </c>
       <c r="P325" s="0" t="n">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="Q325" s="0" t="n">
         <v>966</v>
@@ -23069,7 +23069,7 @@
         <v>13648</v>
       </c>
       <c r="I326" s="0" t="n">
-        <v>176304</v>
+        <v>176290</v>
       </c>
       <c r="J326" s="0" t="n">
         <v>1.2</v>
@@ -23084,7 +23084,7 @@
         <v>8359</v>
       </c>
       <c r="N326" s="0" t="n">
-        <v>7477</v>
+        <v>7478</v>
       </c>
       <c r="O326" s="0" t="n">
         <v>6596</v>
@@ -23096,10 +23096,10 @@
         <v>3070</v>
       </c>
       <c r="R326" s="0" t="n">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="S326" s="0" t="n">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="T326" s="0" t="n">
         <v>0</v>
@@ -23205,7 +23205,7 @@
         <v>13648</v>
       </c>
       <c r="I328" s="0" t="n">
-        <v>263105</v>
+        <v>263119</v>
       </c>
       <c r="J328" s="0" t="n">
         <v>1.8</v>
@@ -23217,16 +23217,16 @@
         <v>8386</v>
       </c>
       <c r="M328" s="0" t="n">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="N328" s="0" t="n">
         <v>4439</v>
       </c>
       <c r="O328" s="0" t="n">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="P328" s="0" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q328" s="0" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>853</v>
       </c>
       <c r="I329" s="0" t="n">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="J329" s="0" t="n">
         <v>0.3</v>
@@ -23294,7 +23294,7 @@
         <v>758</v>
       </c>
       <c r="P329" s="0" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q329" s="0" t="n">
         <v>711</v>
@@ -23306,7 +23306,7 @@
         <v>687</v>
       </c>
       <c r="T329" s="0" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="U329" s="0" t="n">
         <v>27</v>
@@ -23341,7 +23341,7 @@
         <v>853</v>
       </c>
       <c r="I330" s="0" t="n">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="J330" s="0" t="n">
         <v>0.4</v>
@@ -23371,7 +23371,7 @@
         <v>642</v>
       </c>
       <c r="S330" s="0" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="T330" s="0" t="n">
         <v>593</v>
@@ -23409,7 +23409,7 @@
         <v>853</v>
       </c>
       <c r="I331" s="0" t="n">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="J331" s="0" t="n">
         <v>0.5</v>
@@ -23436,7 +23436,7 @@
         <v>605</v>
       </c>
       <c r="R331" s="0" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S331" s="0" t="n">
         <v>564</v>
@@ -23477,19 +23477,19 @@
         <v>39233</v>
       </c>
       <c r="I332" s="0" t="n">
-        <v>40650</v>
+        <v>40653</v>
       </c>
       <c r="J332" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="K332" s="0" t="n">
-        <v>38827</v>
+        <v>38826</v>
       </c>
       <c r="L332" s="0" t="n">
         <v>38420</v>
       </c>
       <c r="M332" s="0" t="n">
-        <v>38014</v>
+        <v>38013</v>
       </c>
       <c r="N332" s="0" t="n">
         <v>37810</v>
@@ -23498,7 +23498,7 @@
         <v>37607</v>
       </c>
       <c r="P332" s="0" t="n">
-        <v>37201</v>
+        <v>37200</v>
       </c>
       <c r="Q332" s="0" t="n">
         <v>36794</v>
@@ -23507,7 +23507,7 @@
         <v>36591</v>
       </c>
       <c r="S332" s="0" t="n">
-        <v>36388</v>
+        <v>36387</v>
       </c>
       <c r="T332" s="0" t="n">
         <v>35981</v>
@@ -23545,7 +23545,7 @@
         <v>39233</v>
       </c>
       <c r="I333" s="0" t="n">
-        <v>67637</v>
+        <v>67644</v>
       </c>
       <c r="J333" s="0" t="n">
         <v>0.2</v>
@@ -23560,31 +23560,31 @@
         <v>37204</v>
       </c>
       <c r="N333" s="0" t="n">
-        <v>36866</v>
+        <v>36865</v>
       </c>
       <c r="O333" s="0" t="n">
-        <v>36528</v>
+        <v>36527</v>
       </c>
       <c r="P333" s="0" t="n">
         <v>35851</v>
       </c>
       <c r="Q333" s="0" t="n">
-        <v>35175</v>
+        <v>35174</v>
       </c>
       <c r="R333" s="0" t="n">
-        <v>34837</v>
+        <v>34836</v>
       </c>
       <c r="S333" s="0" t="n">
         <v>34498</v>
       </c>
       <c r="T333" s="0" t="n">
-        <v>33822</v>
+        <v>33821</v>
       </c>
       <c r="U333" s="0" t="n">
         <v>17</v>
       </c>
       <c r="V333" s="0" t="n">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23613,7 +23613,7 @@
         <v>39233</v>
       </c>
       <c r="I334" s="0" t="n">
-        <v>94624</v>
+        <v>94635</v>
       </c>
       <c r="J334" s="0" t="n">
         <v>0.2</v>
@@ -23622,7 +23622,7 @@
         <v>38287</v>
       </c>
       <c r="L334" s="0" t="n">
-        <v>37341</v>
+        <v>37340</v>
       </c>
       <c r="M334" s="0" t="n">
         <v>36394</v>
@@ -23634,10 +23634,10 @@
         <v>35448</v>
       </c>
       <c r="P334" s="0" t="n">
-        <v>34502</v>
+        <v>34501</v>
       </c>
       <c r="Q334" s="0" t="n">
-        <v>33556</v>
+        <v>33555</v>
       </c>
       <c r="R334" s="0" t="n">
         <v>33082</v>
@@ -23646,7 +23646,7 @@
         <v>32609</v>
       </c>
       <c r="T334" s="0" t="n">
-        <v>31663</v>
+        <v>31662</v>
       </c>
       <c r="U334" s="0" t="n">
         <v>22</v>
@@ -23681,13 +23681,13 @@
         <v>12707</v>
       </c>
       <c r="I335" s="0" t="n">
-        <v>56575</v>
+        <v>56580</v>
       </c>
       <c r="J335" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="K335" s="0" t="n">
-        <v>12142</v>
+        <v>12141</v>
       </c>
       <c r="L335" s="0" t="n">
         <v>11576</v>
@@ -23702,10 +23702,10 @@
         <v>10444</v>
       </c>
       <c r="P335" s="0" t="n">
-        <v>9879</v>
+        <v>9878</v>
       </c>
       <c r="Q335" s="0" t="n">
-        <v>9313</v>
+        <v>9312</v>
       </c>
       <c r="R335" s="0" t="n">
         <v>9030</v>
@@ -23749,7 +23749,7 @@
         <v>12707</v>
       </c>
       <c r="I336" s="0" t="n">
-        <v>104898</v>
+        <v>104904</v>
       </c>
       <c r="J336" s="0" t="n">
         <v>0.8</v>
@@ -23817,7 +23817,7 @@
         <v>12707</v>
       </c>
       <c r="I337" s="0" t="n">
-        <v>153220</v>
+        <v>153228</v>
       </c>
       <c r="J337" s="0" t="n">
         <v>1.2</v>
@@ -23829,10 +23829,10 @@
         <v>9643</v>
       </c>
       <c r="M337" s="0" t="n">
-        <v>8111</v>
+        <v>8110</v>
       </c>
       <c r="N337" s="0" t="n">
-        <v>7345</v>
+        <v>7344</v>
       </c>
       <c r="O337" s="0" t="n">
         <v>6578</v>
@@ -23844,13 +23844,13 @@
         <v>3514</v>
       </c>
       <c r="R337" s="0" t="n">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S337" s="0" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="T337" s="0" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U337" s="0" t="n">
         <v>97</v>
@@ -23885,7 +23885,7 @@
         <v>14</v>
       </c>
       <c r="I338" s="0" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J338" s="0" t="n">
         <v>0.7</v>
@@ -23924,7 +23924,7 @@
         <v>70</v>
       </c>
       <c r="V338" s="0" t="n">
-        <v>2146</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24021,7 +24021,7 @@
         <v>14</v>
       </c>
       <c r="I340" s="0" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J340" s="0" t="n">
         <v>1.7</v>
@@ -24089,7 +24089,7 @@
         <v>2738</v>
       </c>
       <c r="I341" s="0" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="J341" s="0" t="n">
         <v>0</v>
@@ -24128,7 +24128,7 @@
         <v>4</v>
       </c>
       <c r="V341" s="0" t="n">
-        <v>4866</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24157,7 +24157,7 @@
         <v>2738</v>
       </c>
       <c r="I342" s="0" t="n">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="J342" s="0" t="n">
         <v>0.1</v>
@@ -24184,7 +24184,7 @@
         <v>2626</v>
       </c>
       <c r="R342" s="0" t="n">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="S342" s="0" t="n">
         <v>2607</v>
@@ -24196,7 +24196,7 @@
         <v>6</v>
       </c>
       <c r="V342" s="0" t="n">
-        <v>3482</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24225,7 +24225,7 @@
         <v>2738</v>
       </c>
       <c r="I343" s="0" t="n">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="J343" s="0" t="n">
         <v>0.1</v>
@@ -24252,10 +24252,10 @@
         <v>2571</v>
       </c>
       <c r="R343" s="0" t="n">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="S343" s="0" t="n">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="T343" s="0" t="n">
         <v>2516</v>
@@ -24264,7 +24264,7 @@
         <v>9</v>
       </c>
       <c r="V343" s="0" t="n">
-        <v>3004</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24361,7 +24361,7 @@
         <v>1576</v>
       </c>
       <c r="I345" s="0" t="n">
-        <v>21152</v>
+        <v>21151</v>
       </c>
       <c r="J345" s="0" t="n">
         <v>1.3</v>
@@ -24497,7 +24497,7 @@
         <v>5811</v>
       </c>
       <c r="I347" s="0" t="n">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="J347" s="0" t="n">
         <v>0.7</v>
@@ -24506,7 +24506,7 @@
         <v>5399</v>
       </c>
       <c r="L347" s="0" t="n">
-        <v>4988</v>
+        <v>4987</v>
       </c>
       <c r="M347" s="0" t="n">
         <v>4576</v>
@@ -24527,7 +24527,7 @@
         <v>3134</v>
       </c>
       <c r="S347" s="0" t="n">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="T347" s="0" t="n">
         <v>2517</v>
@@ -24565,7 +24565,7 @@
         <v>5811</v>
       </c>
       <c r="I348" s="0" t="n">
-        <v>60742</v>
+        <v>60744</v>
       </c>
       <c r="J348" s="0" t="n">
         <v>1</v>
@@ -24589,7 +24589,7 @@
         <v>2774</v>
       </c>
       <c r="Q348" s="0" t="n">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="R348" s="0" t="n">
         <v>1863</v>
@@ -24633,7 +24633,7 @@
         <v>5811</v>
       </c>
       <c r="I349" s="0" t="n">
-        <v>80305</v>
+        <v>80307</v>
       </c>
       <c r="J349" s="0" t="n">
         <v>1.3</v>
@@ -24837,7 +24837,7 @@
         <v>75</v>
       </c>
       <c r="I352" s="0" t="n">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="J352" s="0" t="n">
         <v>4.2</v>
@@ -24905,7 +24905,7 @@
         <v>1150</v>
       </c>
       <c r="I353" s="0" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J353" s="0" t="n">
         <v>0</v>
@@ -24944,7 +24944,7 @@
         <v>2</v>
       </c>
       <c r="V353" s="0" t="n">
-        <v>7318</v>
+        <v>7294</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25100,7 +25100,7 @@
         <v>25</v>
       </c>
       <c r="F356" s="0" t="n">
-        <v>11004</v>
+        <v>11005</v>
       </c>
       <c r="G356" s="0" t="n">
         <v>8814</v>
@@ -25109,7 +25109,7 @@
         <v>7528</v>
       </c>
       <c r="I356" s="0" t="n">
-        <v>108445</v>
+        <v>108446</v>
       </c>
       <c r="J356" s="0" t="n">
         <v>1.3</v>
@@ -25124,7 +25124,7 @@
         <v>4275</v>
       </c>
       <c r="N356" s="0" t="n">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="O356" s="0" t="n">
         <v>3190</v>
@@ -25168,7 +25168,7 @@
         <v>26</v>
       </c>
       <c r="F357" s="0" t="n">
-        <v>11004</v>
+        <v>11005</v>
       </c>
       <c r="G357" s="0" t="n">
         <v>8814</v>
@@ -25177,7 +25177,7 @@
         <v>7528</v>
       </c>
       <c r="I357" s="0" t="n">
-        <v>134541</v>
+        <v>134536</v>
       </c>
       <c r="J357" s="0" t="n">
         <v>1.6</v>
@@ -25195,7 +25195,7 @@
         <v>2819</v>
       </c>
       <c r="O357" s="0" t="n">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="P357" s="0" t="n">
         <v>801</v>
@@ -25236,7 +25236,7 @@
         <v>27</v>
       </c>
       <c r="F358" s="0" t="n">
-        <v>11004</v>
+        <v>11005</v>
       </c>
       <c r="G358" s="0" t="n">
         <v>8814</v>
@@ -25245,7 +25245,7 @@
         <v>7528</v>
       </c>
       <c r="I358" s="0" t="n">
-        <v>160637</v>
+        <v>160625</v>
       </c>
       <c r="J358" s="0" t="n">
         <v>2</v>
@@ -25254,7 +25254,7 @@
         <v>5922</v>
       </c>
       <c r="L358" s="0" t="n">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="M358" s="0" t="n">
         <v>2709</v>
